--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="命中率比较" sheetId="1" r:id="rId1"/>
     <sheet name="缓存冗余比较" sheetId="2" r:id="rId2"/>
     <sheet name="LFU 命中率" sheetId="3" r:id="rId3"/>
     <sheet name="LFU 缓存冗余比较" sheetId="4" r:id="rId4"/>
+    <sheet name="收益最大协作" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="75">
   <si>
     <t>缓存率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +259,42 @@
     <t>LFU: 缓存冗余大，冗余与缓存初始化过程有较高的相关性，可以将冗余与命中率进行适当转化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cdn id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部命中比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冗余最小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益最高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10：100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10：5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -361,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,17 +431,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1180,7 +1229,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1730,7 +1778,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1849,7 +1896,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9379,14 +9425,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="H1" t="s">
         <v>3</v>
       </c>
@@ -9401,16 +9447,16 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="H2" t="s">
         <v>4</v>
       </c>
@@ -9425,7 +9471,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3">
         <v>1</v>
       </c>
@@ -9455,7 +9501,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
+      <c r="A4" s="15">
         <v>0.01</v>
       </c>
       <c r="B4" s="2">
@@ -9491,7 +9537,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -9522,7 +9568,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
+      <c r="A6" s="15">
         <v>0.02</v>
       </c>
       <c r="B6" s="2">
@@ -9555,7 +9601,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2">
         <v>0.14000000000000001</v>
       </c>
@@ -9586,7 +9632,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="14">
+      <c r="A8" s="15">
         <v>0.05</v>
       </c>
       <c r="B8" s="2">
@@ -9610,7 +9656,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2">
         <v>0.25</v>
       </c>
@@ -9650,7 +9696,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="14">
+      <c r="A10" s="15">
         <v>0.1</v>
       </c>
       <c r="B10" s="2">
@@ -9692,7 +9738,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2">
         <v>0.35</v>
       </c>
@@ -9735,7 +9781,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="14">
+      <c r="A12" s="15">
         <v>0.15</v>
       </c>
       <c r="B12" s="2">
@@ -9759,7 +9805,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2">
         <v>0.4</v>
       </c>
@@ -9781,7 +9827,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="14">
+      <c r="A14" s="15">
         <v>0.2</v>
       </c>
       <c r="B14" s="2">
@@ -9805,7 +9851,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2">
         <v>0.43</v>
       </c>
@@ -9829,35 +9875,35 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
       <c r="H17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
       <c r="H18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
       <c r="B19">
         <v>1</v>
       </c>
@@ -9878,7 +9924,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="14">
+      <c r="A20" s="15">
         <v>0.01</v>
       </c>
       <c r="B20" s="2">
@@ -9899,7 +9945,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -9910,7 +9956,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="14">
+      <c r="A22" s="15">
         <v>0.02</v>
       </c>
       <c r="B22" s="2">
@@ -9934,7 +9980,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -9945,7 +9991,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="14">
+      <c r="A24" s="15">
         <v>0.05</v>
       </c>
       <c r="B24" s="2">
@@ -9969,7 +10015,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -9977,7 +10023,7 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="14">
+      <c r="A26" s="15">
         <v>0.1</v>
       </c>
       <c r="B26" s="2">
@@ -10001,7 +10047,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -10012,7 +10058,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="14">
+      <c r="A28" s="15">
         <v>0.15</v>
       </c>
       <c r="B28" s="2">
@@ -10036,7 +10082,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10047,7 +10093,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="14">
+      <c r="A30" s="15">
         <v>0.2</v>
       </c>
       <c r="B30" s="2">
@@ -10068,7 +10114,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -10076,29 +10122,29 @@
       <c r="F31" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="3">
         <v>0.01</v>
       </c>
@@ -10199,7 +10245,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="14"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -10207,7 +10253,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -10215,7 +10261,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="14"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -10223,7 +10269,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="14"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -10235,6 +10281,13 @@
     <sortCondition ref="I1"/>
   </sortState>
   <mergeCells count="23">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:F37"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
@@ -10251,13 +10304,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:E15">
@@ -10350,34 +10396,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N155"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="B11:M20"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C22:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="14"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="17"/>
       <c r="D2" s="4">
         <v>1</v>
@@ -10409,7 +10455,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
-      <c r="B3" s="14"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
@@ -10443,7 +10489,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
-      <c r="B4" s="14"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="4" t="s">
         <v>47</v>
       </c>
@@ -10477,7 +10523,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="14"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="4" t="s">
         <v>48</v>
       </c>
@@ -10511,7 +10557,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="4" t="s">
         <v>49</v>
       </c>
@@ -10545,7 +10591,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
@@ -10618,28 +10664,28 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="17"/>
       <c r="D12" s="4">
         <v>1</v>
@@ -10674,7 +10720,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="12">
         <v>0.01</v>
       </c>
@@ -10711,7 +10757,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="12">
         <v>0.02</v>
       </c>
@@ -10748,7 +10794,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="12">
         <v>0.05</v>
       </c>
@@ -10785,7 +10831,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
-      <c r="B16" s="14"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="12">
         <v>0.1</v>
       </c>
@@ -10822,7 +10868,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
-      <c r="B17" s="14"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="12">
         <v>0.15</v>
       </c>
@@ -10859,7 +10905,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="12">
         <v>0.2</v>
       </c>
@@ -10896,7 +10942,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="12">
         <v>0.3</v>
       </c>
@@ -10933,7 +10979,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="14"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="12">
         <v>0.5</v>
       </c>
@@ -10979,31 +11025,31 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="17"/>
       <c r="D23" s="4">
         <v>1</v>
@@ -11035,11 +11081,11 @@
       <c r="M23" s="4">
         <v>10</v>
       </c>
-      <c r="N23" s="15"/>
+      <c r="N23" s="16"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="14"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="12">
         <v>0.01</v>
       </c>
@@ -11080,7 +11126,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="14"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="12">
         <v>0.02</v>
       </c>
@@ -11121,7 +11167,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="14"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="12">
         <v>0.05</v>
       </c>
@@ -11162,7 +11208,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="14"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="12">
         <v>0.1</v>
       </c>
@@ -11203,7 +11249,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="14"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="12">
         <v>0.15</v>
       </c>
@@ -11244,7 +11290,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="14"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="12">
         <v>0.2</v>
       </c>
@@ -11285,7 +11331,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="14"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="12">
         <v>0.3</v>
       </c>
@@ -11326,7 +11372,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="14"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="12">
         <v>0.5</v>
       </c>
@@ -12537,28 +12583,28 @@
   <dimension ref="A1:M1505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="O18" sqref="O18:U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
@@ -12599,7 +12645,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
+      <c r="A3" s="15">
         <v>0.01</v>
       </c>
       <c r="B3" s="2">
@@ -12618,7 +12664,7 @@
         <f t="shared" ref="F3:F14" si="0">AVERAGE(B3:E3)</f>
         <v>0.125</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="15">
         <v>0.01</v>
       </c>
       <c r="I3">
@@ -12639,7 +12685,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -12656,7 +12702,7 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="15"/>
       <c r="I4">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -12675,7 +12721,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
+      <c r="A5" s="15">
         <v>0.02</v>
       </c>
       <c r="B5" s="2">
@@ -12694,7 +12740,7 @@
         <f t="shared" si="0"/>
         <v>0.20500000000000002</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="15">
         <v>0.02</v>
       </c>
       <c r="I5">
@@ -12715,7 +12761,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2">
         <v>0.14000000000000001</v>
       </c>
@@ -12732,7 +12778,7 @@
         <f t="shared" si="0"/>
         <v>0.13750000000000001</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="15"/>
       <c r="I6">
         <v>0.05</v>
       </c>
@@ -12751,7 +12797,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="14">
+      <c r="A7" s="15">
         <v>0.05</v>
       </c>
       <c r="B7" s="2">
@@ -12770,7 +12816,7 @@
         <f t="shared" si="0"/>
         <v>0.38749999999999996</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="15">
         <v>0.05</v>
       </c>
       <c r="I7">
@@ -12791,7 +12837,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2">
         <v>0.25</v>
       </c>
@@ -12808,7 +12854,7 @@
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="15"/>
       <c r="I8">
         <v>0.06</v>
       </c>
@@ -12827,7 +12873,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="14">
+      <c r="A9" s="15">
         <v>0.1</v>
       </c>
       <c r="B9" s="2">
@@ -12846,7 +12892,7 @@
         <f t="shared" si="0"/>
         <v>0.58250000000000002</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="15">
         <v>0.1</v>
       </c>
       <c r="I9">
@@ -12867,7 +12913,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2">
         <v>0.35</v>
       </c>
@@ -12884,7 +12930,7 @@
         <f t="shared" si="0"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="15"/>
       <c r="I10">
         <v>0.1</v>
       </c>
@@ -12903,7 +12949,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="14">
+      <c r="A11" s="15">
         <v>0.15</v>
       </c>
       <c r="B11" s="2">
@@ -12922,7 +12968,7 @@
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="15">
         <v>0.15</v>
       </c>
       <c r="I11">
@@ -12943,7 +12989,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2">
         <v>0.4</v>
       </c>
@@ -12960,7 +13006,7 @@
         <f t="shared" si="0"/>
         <v>0.41000000000000003</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="15"/>
       <c r="I12">
         <v>0.12</v>
       </c>
@@ -12979,7 +13025,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="14">
+      <c r="A13" s="15">
         <v>0.2</v>
       </c>
       <c r="B13" s="2">
@@ -12998,7 +13044,7 @@
         <f t="shared" si="0"/>
         <v>0.8274999999999999</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="15">
         <v>0.2</v>
       </c>
       <c r="I13">
@@ -13019,7 +13065,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2">
         <v>0.43</v>
       </c>
@@ -13036,7 +13082,7 @@
         <f t="shared" si="0"/>
         <v>0.44500000000000001</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="15"/>
       <c r="I14">
         <v>0.14000000000000001</v>
       </c>
@@ -21978,8 +22024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21988,27 +22034,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="17"/>
       <c r="C2" s="4">
         <v>1</v>
@@ -22042,7 +22088,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="12">
         <v>0.01</v>
       </c>
@@ -22078,7 +22124,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="12">
         <v>0.02</v>
       </c>
@@ -22114,7 +22160,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="12">
         <v>0.05</v>
       </c>
@@ -22150,7 +22196,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="12">
         <v>0.1</v>
       </c>
@@ -22186,7 +22232,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="12">
         <v>0.15</v>
       </c>
@@ -22222,7 +22268,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="12">
         <v>0.2</v>
       </c>
@@ -22258,7 +22304,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="12">
         <v>0.3</v>
       </c>
@@ -22294,7 +22340,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="12">
         <v>0.5</v>
       </c>
@@ -22330,27 +22376,27 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="17"/>
       <c r="C14" s="4">
         <v>1</v>
@@ -22387,7 +22433,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="12">
         <v>0.01</v>
       </c>
@@ -22422,12 +22468,12 @@
         <v>0.65</v>
       </c>
       <c r="M15">
-        <f>AVERAGE(C15:L15)</f>
+        <f t="shared" ref="M15:M22" si="0">AVERAGE(C15:L15)</f>
         <v>0.65900000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="12">
         <v>0.02</v>
       </c>
@@ -22462,12 +22508,12 @@
         <v>0.91</v>
       </c>
       <c r="M16">
-        <f>AVERAGE(C16:L16)</f>
+        <f t="shared" si="0"/>
         <v>0.91200000000000014</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="12">
         <v>0.05</v>
       </c>
@@ -22502,12 +22548,12 @@
         <v>0.88</v>
       </c>
       <c r="M17">
-        <f>AVERAGE(C17:L17)</f>
+        <f t="shared" si="0"/>
         <v>0.88400000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="12">
         <v>0.1</v>
       </c>
@@ -22542,12 +22588,12 @@
         <v>0.83</v>
       </c>
       <c r="M18">
-        <f>AVERAGE(C18:L18)</f>
+        <f t="shared" si="0"/>
         <v>0.83299999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="12">
         <v>0.15</v>
       </c>
@@ -22582,12 +22628,12 @@
         <v>0.82</v>
       </c>
       <c r="M19">
-        <f>AVERAGE(C19:L19)</f>
+        <f t="shared" si="0"/>
         <v>0.82100000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="12">
         <v>0.2</v>
       </c>
@@ -22622,12 +22668,12 @@
         <v>0.79</v>
       </c>
       <c r="M20">
-        <f>AVERAGE(C20:L20)</f>
+        <f t="shared" si="0"/>
         <v>0.79900000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="12">
         <v>0.3</v>
       </c>
@@ -22662,12 +22708,12 @@
         <v>0.77</v>
       </c>
       <c r="M21">
-        <f>AVERAGE(C21:L21)</f>
+        <f t="shared" si="0"/>
         <v>0.77899999999999991</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="12">
         <v>0.5</v>
       </c>
@@ -22702,7 +22748,7 @@
         <v>0.8</v>
       </c>
       <c r="M22">
-        <f>AVERAGE(C22:L22)</f>
+        <f t="shared" si="0"/>
         <v>0.81299999999999994</v>
       </c>
     </row>
@@ -22712,13 +22758,13 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
       <c r="O25" t="s">
         <v>65</v>
       </c>
@@ -22936,4 +22982,7922 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M223"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:M65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="H2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2872.7222222222199</v>
+      </c>
+      <c r="F4" s="2">
+        <f>D4/C4</f>
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K4">
+        <v>0.23</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3357.5</v>
+      </c>
+      <c r="M4" s="2">
+        <f>K4/J4</f>
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="19"/>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3454.6666666666601</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:F31" si="0">D5/C5</f>
+        <v>0.65384615384615385</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0.32</v>
+      </c>
+      <c r="K5">
+        <v>0.27</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3700.0555555555502</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5:M31" si="1">K5/J5</f>
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="19"/>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3386.3333333333298</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K6">
+        <v>0.23</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3332.3333333333298</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="19"/>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4180.2777777777701</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56666666666666676</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>0.24</v>
+      </c>
+      <c r="K7">
+        <v>0.2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2926.8333333333298</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4631.8333333333303</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.65714285714285725</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.33</v>
+      </c>
+      <c r="K8">
+        <v>0.26</v>
+      </c>
+      <c r="L8" s="2">
+        <v>4077.38888888888</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.78787878787878785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="19"/>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4505.6111111111104</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.70588235294117641</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>0.37</v>
+      </c>
+      <c r="K9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L9" s="2">
+        <v>4530.5</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.78378378378378377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="19"/>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5356.7777777777701</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.64102564102564097</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>0.41</v>
+      </c>
+      <c r="K10">
+        <v>0.35</v>
+      </c>
+      <c r="L10" s="2">
+        <v>4813.6111111111104</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.85365853658536583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="19"/>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4026.3333333333298</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.74193548387096775</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>0.37</v>
+      </c>
+      <c r="K11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L11" s="2">
+        <v>4536.0555555555502</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.78378378378378377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6531.6666666666597</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.49</v>
+      </c>
+      <c r="K12">
+        <v>0.37</v>
+      </c>
+      <c r="L12" s="2">
+        <v>6172</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.75510204081632648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="19"/>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6123.1666666666597</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.72340425531914898</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0.53</v>
+      </c>
+      <c r="K13">
+        <v>0.41</v>
+      </c>
+      <c r="L13" s="2">
+        <v>6543.8888888888796</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7735849056603773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="19"/>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7261.0555555555502</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>0.53</v>
+      </c>
+      <c r="K14">
+        <v>0.41</v>
+      </c>
+      <c r="L14" s="2">
+        <v>6556.8888888888796</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7735849056603773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="19"/>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6642.7222222222199</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.68627450980392146</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K15">
+        <v>0.47</v>
+      </c>
+      <c r="L15" s="2">
+        <v>6693.6666666666597</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.82456140350877194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="E16" s="2">
+        <v>9188.5555555555493</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6811594202898551</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.69</v>
+      </c>
+      <c r="K16">
+        <v>0.52</v>
+      </c>
+      <c r="L16" s="2">
+        <v>8545.3888888888796</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.75362318840579723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="19"/>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8254.3888888888796</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.71875</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0.72</v>
+      </c>
+      <c r="K17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L17" s="2">
+        <v>8612.1666666666606</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="19"/>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="E18" s="2">
+        <v>8506.3888888888796</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.71212121212121204</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>0.66</v>
+      </c>
+      <c r="K18">
+        <v>0.49</v>
+      </c>
+      <c r="L18" s="2">
+        <v>8304.6111111111095</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.74242424242424243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="19"/>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="E19" s="2">
+        <v>8642.7777777777701</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.69696969696969702</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>0.69</v>
+      </c>
+      <c r="K19">
+        <v>0.52</v>
+      </c>
+      <c r="L19" s="2">
+        <v>8534.2222222222208</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.75362318840579723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10533.333333333299</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.82</v>
+      </c>
+      <c r="K20">
+        <v>0.65</v>
+      </c>
+      <c r="L20" s="2">
+        <v>9965.6111111111095</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.79268292682926833</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="19"/>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E21" s="2">
+        <v>9943.5555555555493</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>0.78</v>
+      </c>
+      <c r="K21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L21" s="2">
+        <v>9860.2222222222208</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7435897435897435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="19"/>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="E22" s="2">
+        <v>9812.5</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.71052631578947367</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>0.8</v>
+      </c>
+      <c r="K22">
+        <v>0.61</v>
+      </c>
+      <c r="L22" s="2">
+        <v>9969.0555555555493</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="19"/>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10120.4444444444</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>0.8</v>
+      </c>
+      <c r="K23">
+        <v>0.6</v>
+      </c>
+      <c r="L23" s="2">
+        <v>10021.277777777699</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.74999999999999989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E24" s="2">
+        <v>11634.5555555555</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="H24" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.9</v>
+      </c>
+      <c r="K24">
+        <v>0.67</v>
+      </c>
+      <c r="L24" s="2">
+        <v>11160.8888888888</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.74444444444444446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="19"/>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="E25" s="2">
+        <v>11135.0555555555</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.71264367816091956</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>0.9</v>
+      </c>
+      <c r="K25">
+        <v>0.7</v>
+      </c>
+      <c r="L25" s="2">
+        <v>11066.666666666601</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="19"/>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="E26" s="2">
+        <v>11329.777777777699</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.70114942528735635</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>0.9</v>
+      </c>
+      <c r="K26">
+        <v>0.67</v>
+      </c>
+      <c r="L26" s="2">
+        <v>11230.222222222201</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.74444444444444446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="19"/>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="E27" s="2">
+        <v>11120.666666666601</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.71264367816091956</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>0.88</v>
+      </c>
+      <c r="K27">
+        <v>0.65</v>
+      </c>
+      <c r="L27" s="2">
+        <v>11167.722222222201</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.73863636363636365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>12044.166666666601</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.72631578947368414</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.97</v>
+      </c>
+      <c r="K28">
+        <v>0.72</v>
+      </c>
+      <c r="L28" s="2">
+        <v>12307.9444444444</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.74226804123711343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="19"/>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E29" s="2">
+        <v>12112.5555555555</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0.97</v>
+      </c>
+      <c r="K29">
+        <v>0.74</v>
+      </c>
+      <c r="L29" s="2">
+        <v>12069.666666666601</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7628865979381444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="19"/>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="E30" s="2">
+        <v>12407.1111111111</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.69473684210526321</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>0.98</v>
+      </c>
+      <c r="K30">
+        <v>0.74</v>
+      </c>
+      <c r="L30" s="2">
+        <v>12138.8888888888</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="1"/>
+        <v>0.75510204081632648</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="19"/>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>12706.6111111111</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.67368421052631589</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>0.97</v>
+      </c>
+      <c r="K31">
+        <v>0.73</v>
+      </c>
+      <c r="L31" s="2">
+        <v>12160.277777777699</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.75257731958762886</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="20">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="H34" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" t="s">
+        <v>68</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2796.9629629630099</v>
+      </c>
+      <c r="F36" s="2">
+        <f>D36/C36</f>
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="H36" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K36">
+        <v>0.23</v>
+      </c>
+      <c r="L36" s="2">
+        <v>2590.8888888889001</v>
+      </c>
+      <c r="M36" s="2">
+        <f>K36/J36</f>
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="19"/>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3912.0000000001301</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" ref="F37:F63" si="2">D37/C37</f>
+        <v>0.42857142857142849</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>0.32</v>
+      </c>
+      <c r="K37">
+        <v>0.27</v>
+      </c>
+      <c r="L37" s="2">
+        <v>2798.74074074081</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" ref="M37:M63" si="3">K37/J37</f>
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" s="19"/>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2875.4444444444998</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>0.24</v>
+      </c>
+      <c r="K38">
+        <v>0.2</v>
+      </c>
+      <c r="L38" s="2">
+        <v>2270.4074074073401</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" s="19"/>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2533.4074074074101</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K39">
+        <v>0.23</v>
+      </c>
+      <c r="L39" s="2">
+        <v>2564.1851851851902</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3874.96296296318</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="2"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="H40" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0.37</v>
+      </c>
+      <c r="K40">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L40" s="2">
+        <v>3561.7407407409901</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="3"/>
+        <v>0.78378378378378377</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41" s="19"/>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4697.1851851852898</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="2"/>
+        <v>0.56756756756756754</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>0.41</v>
+      </c>
+      <c r="K41">
+        <v>0.35</v>
+      </c>
+      <c r="L41" s="2">
+        <v>3658.85185185215</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="3"/>
+        <v>0.85365853658536583</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="19"/>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3784.4444444446399</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="2"/>
+        <v>0.60606060606060608</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>0.33</v>
+      </c>
+      <c r="K42">
+        <v>0.26</v>
+      </c>
+      <c r="L42" s="2">
+        <v>3215.0370370372102</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="3"/>
+        <v>0.78787878787878785</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" s="19"/>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3489.85185185202</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="2"/>
+        <v>0.63333333333333341</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>0.37</v>
+      </c>
+      <c r="K43">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L43" s="2">
+        <v>3559.59259259284</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="3"/>
+        <v>0.78378378378378377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="E44" s="2">
+        <v>6458.5925925922202</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="2"/>
+        <v>0.58490566037735847</v>
+      </c>
+      <c r="H44" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K44">
+        <v>0.47</v>
+      </c>
+      <c r="L44" s="2">
+        <v>5141.8148148147702</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="3"/>
+        <v>0.82456140350877194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="19"/>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5191.5555555554502</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="2"/>
+        <v>0.65217391304347816</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>0.53</v>
+      </c>
+      <c r="K45">
+        <v>0.41</v>
+      </c>
+      <c r="L45" s="2">
+        <v>5205.1851851850697</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7735849056603773</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A46" s="19"/>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5436.7037037035298</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>0.53</v>
+      </c>
+      <c r="K46">
+        <v>0.41</v>
+      </c>
+      <c r="L46" s="2">
+        <v>5191.51851851841</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7735849056603773</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A47" s="19"/>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5494.7407407405499</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="2"/>
+        <v>0.65306122448979598</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>0.49</v>
+      </c>
+      <c r="K47">
+        <v>0.37</v>
+      </c>
+      <c r="L47" s="2">
+        <v>4945.0740740740603</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="3"/>
+        <v>0.75510204081632648</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A48" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="E48" s="2">
+        <v>7105.59259259179</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="2"/>
+        <v>0.671875</v>
+      </c>
+      <c r="H48" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0.69</v>
+      </c>
+      <c r="K48">
+        <v>0.52</v>
+      </c>
+      <c r="L48" s="2">
+        <v>6811.6296296287601</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="3"/>
+        <v>0.75362318840579723</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A49" s="19"/>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="E49" s="2">
+        <v>7013.0740740732799</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="2"/>
+        <v>0.6875</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>0.66</v>
+      </c>
+      <c r="K49">
+        <v>0.49</v>
+      </c>
+      <c r="L49" s="2">
+        <v>6677.8888888881102</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="3"/>
+        <v>0.74242424242424243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="19"/>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="E50" s="2">
+        <v>8024.6666666659903</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="2"/>
+        <v>0.6029411764705882</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>0.69</v>
+      </c>
+      <c r="K50">
+        <v>0.52</v>
+      </c>
+      <c r="L50" s="2">
+        <v>6787.7777777769197</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="3"/>
+        <v>0.75362318840579723</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51" s="19"/>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="E51" s="2">
+        <v>6913.0370370362998</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="2"/>
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>0.72</v>
+      </c>
+      <c r="K51">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L51" s="2">
+        <v>6698.5555555546998</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="3"/>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A52" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E52" s="2">
+        <v>8166.7777777766096</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="2"/>
+        <v>0.69333333333333336</v>
+      </c>
+      <c r="H52" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0.8</v>
+      </c>
+      <c r="K52">
+        <v>0.61</v>
+      </c>
+      <c r="L52" s="2">
+        <v>7944.1481481468199</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="3"/>
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A53" s="19"/>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="E53" s="2">
+        <v>9144.2592592586207</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="2"/>
+        <v>0.61538461538461531</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>0.82</v>
+      </c>
+      <c r="K53">
+        <v>0.65</v>
+      </c>
+      <c r="L53" s="2">
+        <v>7811.3703703690699</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="3"/>
+        <v>0.79268292682926833</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A54" s="19"/>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="E54" s="2">
+        <v>8309.1111111099508</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="2"/>
+        <v>0.67105263157894735</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>0.8</v>
+      </c>
+      <c r="K54">
+        <v>0.6</v>
+      </c>
+      <c r="L54" s="2">
+        <v>8018.1481481468099</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A55" s="19"/>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="2">
+        <v>8170.4444444432702</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="2"/>
+        <v>0.67567567567567566</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <v>0.78</v>
+      </c>
+      <c r="K55">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L55" s="2">
+        <v>7938.0740740727597</v>
+      </c>
+      <c r="M55" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7435897435897435</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A56" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E56" s="2">
+        <v>9136.0740740734509</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="2"/>
+        <v>0.69411764705882351</v>
+      </c>
+      <c r="H56" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0.9</v>
+      </c>
+      <c r="K56">
+        <v>0.67</v>
+      </c>
+      <c r="L56" s="2">
+        <v>8913.4444444434703</v>
+      </c>
+      <c r="M56" s="2">
+        <f t="shared" si="3"/>
+        <v>0.74444444444444446</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A57" s="19"/>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E57" s="2">
+        <v>9229.6296296291603</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="2"/>
+        <v>0.68235294117647061</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>0.88</v>
+      </c>
+      <c r="K57">
+        <v>0.65</v>
+      </c>
+      <c r="L57" s="2">
+        <v>8997.2592592584897</v>
+      </c>
+      <c r="M57" s="2">
+        <f t="shared" si="3"/>
+        <v>0.73863636363636365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A58" s="19"/>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="E58" s="2">
+        <v>10056.259259259199</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="2"/>
+        <v>0.62790697674418605</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <v>0.9</v>
+      </c>
+      <c r="K58">
+        <v>0.67</v>
+      </c>
+      <c r="L58" s="2">
+        <v>9007.1851851843403</v>
+      </c>
+      <c r="M58" s="2">
+        <f t="shared" si="3"/>
+        <v>0.74444444444444446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A59" s="19"/>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E59" s="2">
+        <v>9298.0740740736092</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="2"/>
+        <v>0.68235294117647061</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59">
+        <v>0.9</v>
+      </c>
+      <c r="K59">
+        <v>0.7</v>
+      </c>
+      <c r="L59" s="2">
+        <v>8723.4444444431192</v>
+      </c>
+      <c r="M59" s="2">
+        <f t="shared" si="3"/>
+        <v>0.77777777777777768</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A60" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E60" s="2">
+        <v>10208.3703703705</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="2"/>
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="H60" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0.97</v>
+      </c>
+      <c r="K60">
+        <v>0.73</v>
+      </c>
+      <c r="L60" s="2">
+        <v>9731.9259259257597</v>
+      </c>
+      <c r="M60" s="2">
+        <f t="shared" si="3"/>
+        <v>0.75257731958762886</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A61" s="19"/>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E61" s="2">
+        <v>11002.703703704199</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="2"/>
+        <v>0.62365591397849451</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>0.97</v>
+      </c>
+      <c r="K61">
+        <v>0.74</v>
+      </c>
+      <c r="L61" s="2">
+        <v>9598.7407407403898</v>
+      </c>
+      <c r="M61" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7628865979381444</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A62" s="19"/>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="E62" s="2">
+        <v>9967.9629629630308</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="2"/>
+        <v>0.70212765957446821</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>0.98</v>
+      </c>
+      <c r="K62">
+        <v>0.74</v>
+      </c>
+      <c r="L62" s="2">
+        <v>9680.2592592589408</v>
+      </c>
+      <c r="M62" s="2">
+        <f t="shared" si="3"/>
+        <v>0.75510204081632648</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A63" s="19"/>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E63" s="2">
+        <v>9825.2222222221208</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="2"/>
+        <v>0.69892473118279563</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63">
+        <v>0.97</v>
+      </c>
+      <c r="K63">
+        <v>0.72</v>
+      </c>
+      <c r="L63" s="2">
+        <v>9913.4814814814708</v>
+      </c>
+      <c r="M63" s="2">
+        <f t="shared" si="3"/>
+        <v>0.74226804123711343</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A64" s="18"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="H64" s="18"/>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A65" s="20">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A66" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="H66" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" t="s">
+        <v>69</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>66</v>
+      </c>
+      <c r="J67" t="s">
+        <v>67</v>
+      </c>
+      <c r="K67" t="s">
+        <v>68</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A68" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2534.99999999998</v>
+      </c>
+      <c r="F68" s="2">
+        <f>D68/C68</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="H68" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0.32</v>
+      </c>
+      <c r="K68">
+        <v>0.27</v>
+      </c>
+      <c r="L68" s="2">
+        <v>2077.6888888890298</v>
+      </c>
+      <c r="M68" s="2">
+        <f>K68/J68</f>
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A69" s="19"/>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3571.8222222221002</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" ref="F69:F95" si="4">D69/C69</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K69">
+        <v>0.23</v>
+      </c>
+      <c r="L69" s="2">
+        <v>1977.60000000012</v>
+      </c>
+      <c r="M69" s="2">
+        <f t="shared" ref="M69:M95" si="5">K69/J69</f>
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A70" s="19"/>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E70" s="2">
+        <v>2448.9333333333202</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="4"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K70">
+        <v>0.23</v>
+      </c>
+      <c r="L70" s="2">
+        <v>1949.66666666679</v>
+      </c>
+      <c r="M70" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A71" s="19"/>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E71" s="2">
+        <v>2785.9555555554998</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="4"/>
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71">
+        <v>4</v>
+      </c>
+      <c r="J71">
+        <v>0.24</v>
+      </c>
+      <c r="K71">
+        <v>0.2</v>
+      </c>
+      <c r="L71" s="2">
+        <v>1745.2666666667701</v>
+      </c>
+      <c r="M71" s="2">
+        <f t="shared" si="5"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A72" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3604.7555555553599</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="4"/>
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="H72" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0.41</v>
+      </c>
+      <c r="K72">
+        <v>0.35</v>
+      </c>
+      <c r="L72" s="2">
+        <v>2735.0444444443801</v>
+      </c>
+      <c r="M72" s="2">
+        <f t="shared" si="5"/>
+        <v>0.85365853658536583</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A73" s="19"/>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E73" s="2">
+        <v>3271.4666666665098</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="4"/>
+        <v>0.55172413793103459</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>0.37</v>
+      </c>
+      <c r="K73">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L73" s="2">
+        <v>2782.2888888887801</v>
+      </c>
+      <c r="M73" s="2">
+        <f t="shared" si="5"/>
+        <v>0.78378378378378377</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A74" s="19"/>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="E74" s="2">
+        <v>3363.5999999998198</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58064516129032251</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74">
+        <v>0.37</v>
+      </c>
+      <c r="K74">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L74" s="2">
+        <v>2782.8666666665599</v>
+      </c>
+      <c r="M74" s="2">
+        <f t="shared" si="5"/>
+        <v>0.78378378378378377</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A75" s="19"/>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E75" s="2">
+        <v>4650.9999999997199</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="4"/>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75">
+        <v>0.33</v>
+      </c>
+      <c r="K75">
+        <v>0.26</v>
+      </c>
+      <c r="L75" s="2">
+        <v>2525.1555555555301</v>
+      </c>
+      <c r="M75" s="2">
+        <f t="shared" si="5"/>
+        <v>0.78787878787878785</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A76" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E76" s="2">
+        <v>4728.2444444439097</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="4"/>
+        <v>0.625</v>
+      </c>
+      <c r="H76" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0.53</v>
+      </c>
+      <c r="K76">
+        <v>0.41</v>
+      </c>
+      <c r="L76" s="2">
+        <v>4123.82222222163</v>
+      </c>
+      <c r="M76" s="2">
+        <f t="shared" si="5"/>
+        <v>0.7735849056603773</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A77" s="19"/>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E77" s="2">
+        <v>4986.7777777772399</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="4"/>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>0.49</v>
+      </c>
+      <c r="K77">
+        <v>0.37</v>
+      </c>
+      <c r="L77" s="2">
+        <v>3963.5333333328199</v>
+      </c>
+      <c r="M77" s="2">
+        <f t="shared" si="5"/>
+        <v>0.75510204081632648</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A78" s="19"/>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E78" s="2">
+        <v>6453.9999999994498</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="4"/>
+        <v>0.48076923076923073</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="J78">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K78">
+        <v>0.47</v>
+      </c>
+      <c r="L78" s="2">
+        <v>3900.33333333275</v>
+      </c>
+      <c r="M78" s="2">
+        <f t="shared" si="5"/>
+        <v>0.82456140350877194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A79" s="19"/>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="E79" s="2">
+        <v>4717.6888888884096</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79">
+        <v>4</v>
+      </c>
+      <c r="J79">
+        <v>0.53</v>
+      </c>
+      <c r="K79">
+        <v>0.41</v>
+      </c>
+      <c r="L79" s="2">
+        <v>4109.6222222216302</v>
+      </c>
+      <c r="M79" s="2">
+        <f t="shared" si="5"/>
+        <v>0.7735849056603773</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A80" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="E80" s="2">
+        <v>8156.31111111058</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="4"/>
+        <v>0.47692307692307689</v>
+      </c>
+      <c r="H80" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0.72</v>
+      </c>
+      <c r="K80">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L80" s="2">
+        <v>5167.6666666656001</v>
+      </c>
+      <c r="M80" s="2">
+        <f t="shared" si="5"/>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A81" s="19"/>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="E81" s="2">
+        <v>6186.3777777769201</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="4"/>
+        <v>0.62903225806451613</v>
+      </c>
+      <c r="H81" s="19"/>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>0.69</v>
+      </c>
+      <c r="K81">
+        <v>0.52</v>
+      </c>
+      <c r="L81" s="2">
+        <v>5390.62222222118</v>
+      </c>
+      <c r="M81" s="2">
+        <f t="shared" si="5"/>
+        <v>0.75362318840579723</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A82" s="19"/>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="E82" s="2">
+        <v>6056.4222222214103</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="4"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="H82" s="19"/>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <v>0.69</v>
+      </c>
+      <c r="K82">
+        <v>0.52</v>
+      </c>
+      <c r="L82" s="2">
+        <v>5424.62222222118</v>
+      </c>
+      <c r="M82" s="2">
+        <f t="shared" si="5"/>
+        <v>0.75362318840579723</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A83" s="19"/>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E83" s="2">
+        <v>5979.3777777769201</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="4"/>
+        <v>0.64516129032258074</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83">
+        <v>4</v>
+      </c>
+      <c r="J83">
+        <v>0.66</v>
+      </c>
+      <c r="K83">
+        <v>0.49</v>
+      </c>
+      <c r="L83" s="2">
+        <v>5376.5111111101296</v>
+      </c>
+      <c r="M83" s="2">
+        <f t="shared" si="5"/>
+        <v>0.74242424242424243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A84" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="E84" s="2">
+        <v>7065.13333333225</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="4"/>
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="H84" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0.8</v>
+      </c>
+      <c r="K84">
+        <v>0.6</v>
+      </c>
+      <c r="L84" s="2">
+        <v>6415.6444444431099</v>
+      </c>
+      <c r="M84" s="2">
+        <f t="shared" si="5"/>
+        <v>0.74999999999999989</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A85" s="19"/>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E85" s="2">
+        <v>9356.7555555553809</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="4"/>
+        <v>0.47297297297297297</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>0.82</v>
+      </c>
+      <c r="K85">
+        <v>0.65</v>
+      </c>
+      <c r="L85" s="2">
+        <v>6087.9777777764502</v>
+      </c>
+      <c r="M85" s="2">
+        <f t="shared" si="5"/>
+        <v>0.79268292682926833</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A86" s="19"/>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="E86" s="2">
+        <v>6916.2444444433604</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="4"/>
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="H86" s="19"/>
+      <c r="I86">
+        <v>3</v>
+      </c>
+      <c r="J86">
+        <v>0.8</v>
+      </c>
+      <c r="K86">
+        <v>0.61</v>
+      </c>
+      <c r="L86" s="2">
+        <v>6324.2222222208902</v>
+      </c>
+      <c r="M86" s="2">
+        <f t="shared" si="5"/>
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A87" s="19"/>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="E87" s="2">
+        <v>7020.9555555544903</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="4"/>
+        <v>0.61971830985915499</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87">
+        <v>4</v>
+      </c>
+      <c r="J87">
+        <v>0.78</v>
+      </c>
+      <c r="K87">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L87" s="2">
+        <v>6400.3555555542498</v>
+      </c>
+      <c r="M87" s="2">
+        <f t="shared" si="5"/>
+        <v>0.7435897435897435</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A88" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="E88" s="2">
+        <v>10283.5555555556</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="4"/>
+        <v>0.46341463414634149</v>
+      </c>
+      <c r="H88" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0.9</v>
+      </c>
+      <c r="K88">
+        <v>0.67</v>
+      </c>
+      <c r="L88" s="2">
+        <v>7115.7555555540503</v>
+      </c>
+      <c r="M88" s="2">
+        <f t="shared" si="5"/>
+        <v>0.74444444444444446</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A89" s="19"/>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E89" s="2">
+        <v>7813.3333333321398</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="4"/>
+        <v>0.65</v>
+      </c>
+      <c r="H89" s="19"/>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>0.9</v>
+      </c>
+      <c r="K89">
+        <v>0.67</v>
+      </c>
+      <c r="L89" s="2">
+        <v>7228.3111111095996</v>
+      </c>
+      <c r="M89" s="2">
+        <f t="shared" si="5"/>
+        <v>0.74444444444444446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A90" s="19"/>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="E90" s="2">
+        <v>7835.2444444432103</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="4"/>
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="H90" s="19"/>
+      <c r="I90">
+        <v>3</v>
+      </c>
+      <c r="J90">
+        <v>0.88</v>
+      </c>
+      <c r="K90">
+        <v>0.65</v>
+      </c>
+      <c r="L90" s="2">
+        <v>7260.3555555540197</v>
+      </c>
+      <c r="M90" s="2">
+        <f t="shared" si="5"/>
+        <v>0.73863636363636365</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A91" s="19"/>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E91" s="2">
+        <v>7685.5999999987998</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="4"/>
+        <v>0.65</v>
+      </c>
+      <c r="H91" s="19"/>
+      <c r="I91">
+        <v>4</v>
+      </c>
+      <c r="J91">
+        <v>0.9</v>
+      </c>
+      <c r="K91">
+        <v>0.7</v>
+      </c>
+      <c r="L91" s="2">
+        <v>6848.6444444429399</v>
+      </c>
+      <c r="M91" s="2">
+        <f t="shared" si="5"/>
+        <v>0.77777777777777768</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A92" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E92" s="2">
+        <v>11250.266666667099</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="4"/>
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="H92" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0.98</v>
+      </c>
+      <c r="K92">
+        <v>0.74</v>
+      </c>
+      <c r="L92" s="2">
+        <v>7713.3555555538896</v>
+      </c>
+      <c r="M92" s="2">
+        <f t="shared" si="5"/>
+        <v>0.75510204081632648</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A93" s="19"/>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E93" s="2">
+        <v>8290.2444444431494</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="4"/>
+        <v>0.65909090909090906</v>
+      </c>
+      <c r="H93" s="19"/>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>0.97</v>
+      </c>
+      <c r="K93">
+        <v>0.73</v>
+      </c>
+      <c r="L93" s="2">
+        <v>7789.2444444427501</v>
+      </c>
+      <c r="M93" s="2">
+        <f t="shared" si="5"/>
+        <v>0.75257731958762886</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A94" s="19"/>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E94" s="2">
+        <v>8334.0666666653997</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="4"/>
+        <v>0.65909090909090906</v>
+      </c>
+      <c r="H94" s="19"/>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <v>0.97</v>
+      </c>
+      <c r="K94">
+        <v>0.74</v>
+      </c>
+      <c r="L94" s="2">
+        <v>7621.9999999983202</v>
+      </c>
+      <c r="M94" s="2">
+        <f t="shared" si="5"/>
+        <v>0.7628865979381444</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A95" s="19"/>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E95" s="2">
+        <v>8427.3777777765099</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="4"/>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="H95" s="19"/>
+      <c r="I95">
+        <v>4</v>
+      </c>
+      <c r="J95">
+        <v>0.97</v>
+      </c>
+      <c r="K95">
+        <v>0.72</v>
+      </c>
+      <c r="L95" s="2">
+        <v>7997.9111111094398</v>
+      </c>
+      <c r="M95" s="2">
+        <f t="shared" si="5"/>
+        <v>0.74226804123711343</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A97" s="20">
+        <v>0.4375</v>
+      </c>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="16"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A98" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="H98" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A99" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" t="s">
+        <v>67</v>
+      </c>
+      <c r="D99" t="s">
+        <v>68</v>
+      </c>
+      <c r="E99" t="s">
+        <v>70</v>
+      </c>
+      <c r="F99" t="s">
+        <v>69</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>66</v>
+      </c>
+      <c r="J99" t="s">
+        <v>67</v>
+      </c>
+      <c r="K99" t="s">
+        <v>68</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M99" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A100" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E100" s="2">
+        <v>2394.3333333333399</v>
+      </c>
+      <c r="F100" s="2">
+        <f>D100/C100</f>
+        <v>0.5</v>
+      </c>
+      <c r="H100" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0.24</v>
+      </c>
+      <c r="K100">
+        <v>0.2</v>
+      </c>
+      <c r="L100" s="2">
+        <v>1520.20634920628</v>
+      </c>
+      <c r="M100" s="2">
+        <f>K100/J100</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A101" s="19"/>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E101" s="2">
+        <v>3448.1269841271101</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" ref="F101:F127" si="6">D101/C101</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <v>0.32</v>
+      </c>
+      <c r="K101">
+        <v>0.27</v>
+      </c>
+      <c r="L101" s="2">
+        <v>1768.6666666665801</v>
+      </c>
+      <c r="M101" s="2">
+        <f t="shared" ref="M101:M127" si="7">K101/J101</f>
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A102" s="19"/>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E102" s="2">
+        <v>2369.12698412699</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="6"/>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102">
+        <v>3</v>
+      </c>
+      <c r="J102">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K102">
+        <v>0.23</v>
+      </c>
+      <c r="L102" s="2">
+        <v>1714.76190476183</v>
+      </c>
+      <c r="M102" s="2">
+        <f t="shared" si="7"/>
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A103" s="19"/>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E103" s="2">
+        <v>2778.3333333333899</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="6"/>
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103">
+        <v>4</v>
+      </c>
+      <c r="J103">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K103">
+        <v>0.23</v>
+      </c>
+      <c r="L103" s="2">
+        <v>1686.3015873015099</v>
+      </c>
+      <c r="M103" s="2">
+        <f t="shared" si="7"/>
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A104" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E104" s="2">
+        <v>3148.0634920636599</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="6"/>
+        <v>0.54838709677419362</v>
+      </c>
+      <c r="H104" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0.33</v>
+      </c>
+      <c r="K104">
+        <v>0.26</v>
+      </c>
+      <c r="L104" s="2">
+        <v>2229.4920634919999</v>
+      </c>
+      <c r="M104" s="2">
+        <f t="shared" si="7"/>
+        <v>0.78787878787878785</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A105" s="19"/>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E105" s="2">
+        <v>3516.4761904764</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="6"/>
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <v>0.37</v>
+      </c>
+      <c r="K105">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L105" s="2">
+        <v>2449.9841269841399</v>
+      </c>
+      <c r="M105" s="2">
+        <f t="shared" si="7"/>
+        <v>0.78378378378378377</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A106" s="19"/>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E106" s="2">
+        <v>4603.9682539683999</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="6"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106">
+        <v>3</v>
+      </c>
+      <c r="J106">
+        <v>0.41</v>
+      </c>
+      <c r="K106">
+        <v>0.35</v>
+      </c>
+      <c r="L106" s="2">
+        <v>2339.12698412686</v>
+      </c>
+      <c r="M106" s="2">
+        <f t="shared" si="7"/>
+        <v>0.85365853658536583</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A107" s="19"/>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E107" s="2">
+        <v>3145.0317460319002</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="6"/>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107">
+        <v>4</v>
+      </c>
+      <c r="J107">
+        <v>0.37</v>
+      </c>
+      <c r="K107">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L107" s="2">
+        <v>2448.2380952381</v>
+      </c>
+      <c r="M107" s="2">
+        <f t="shared" si="7"/>
+        <v>0.78378378378378377</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A108" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="E108" s="2">
+        <v>6426.50793650778</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="6"/>
+        <v>0.44230769230769229</v>
+      </c>
+      <c r="H108" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K108">
+        <v>0.47</v>
+      </c>
+      <c r="L108" s="2">
+        <v>3368.2698412702498</v>
+      </c>
+      <c r="M108" s="2">
+        <f t="shared" si="7"/>
+        <v>0.82456140350877194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A109" s="19"/>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E109" s="2">
+        <v>4760.9206349208698</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" si="6"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>0.53</v>
+      </c>
+      <c r="K109">
+        <v>0.41</v>
+      </c>
+      <c r="L109" s="2">
+        <v>3645.9523809528901</v>
+      </c>
+      <c r="M109" s="2">
+        <f t="shared" si="7"/>
+        <v>0.7735849056603773</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A110" s="19"/>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E110" s="2">
+        <v>4392.3492063496096</v>
+      </c>
+      <c r="F110" s="2">
+        <f t="shared" si="6"/>
+        <v>0.625</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110">
+        <v>0.53</v>
+      </c>
+      <c r="K110">
+        <v>0.41</v>
+      </c>
+      <c r="L110" s="2">
+        <v>3660.3809523814598</v>
+      </c>
+      <c r="M110" s="2">
+        <f t="shared" si="7"/>
+        <v>0.7735849056603773</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A111" s="19"/>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E111" s="2">
+        <v>4470.47619047649</v>
+      </c>
+      <c r="F111" s="2">
+        <f t="shared" si="6"/>
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111">
+        <v>4</v>
+      </c>
+      <c r="J111">
+        <v>0.49</v>
+      </c>
+      <c r="K111">
+        <v>0.37</v>
+      </c>
+      <c r="L111" s="2">
+        <v>3542.8730158734902</v>
+      </c>
+      <c r="M111" s="2">
+        <f t="shared" si="7"/>
+        <v>0.75510204081632648</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A112" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D112" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="E112" s="2">
+        <v>8465.0317460312599</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="6"/>
+        <v>0.41538461538461541</v>
+      </c>
+      <c r="H112" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0.66</v>
+      </c>
+      <c r="K112">
+        <v>0.49</v>
+      </c>
+      <c r="L112" s="2">
+        <v>4818.7777777781603</v>
+      </c>
+      <c r="M112" s="2">
+        <f t="shared" si="7"/>
+        <v>0.74242424242424243</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A113" s="19"/>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="E113" s="2">
+        <v>5686.0952380951603</v>
+      </c>
+      <c r="F113" s="2">
+        <f t="shared" si="6"/>
+        <v>0.61016949152542377</v>
+      </c>
+      <c r="H113" s="19"/>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113">
+        <v>0.69</v>
+      </c>
+      <c r="K113">
+        <v>0.52</v>
+      </c>
+      <c r="L113" s="2">
+        <v>4830.19047619092</v>
+      </c>
+      <c r="M113" s="2">
+        <f t="shared" si="7"/>
+        <v>0.75362318840579723</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A114" s="19"/>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="E114" s="2">
+        <v>5834.5396825395701</v>
+      </c>
+      <c r="F114" s="2">
+        <f t="shared" si="6"/>
+        <v>0.61290322580645162</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114">
+        <v>3</v>
+      </c>
+      <c r="J114">
+        <v>0.72</v>
+      </c>
+      <c r="K114">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L114" s="2">
+        <v>4511.5714285722897</v>
+      </c>
+      <c r="M114" s="2">
+        <f t="shared" si="7"/>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A115" s="19"/>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E115" s="2">
+        <v>5525.5238095238201</v>
+      </c>
+      <c r="F115" s="2">
+        <f t="shared" si="6"/>
+        <v>0.64516129032258074</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115">
+        <v>4</v>
+      </c>
+      <c r="J115">
+        <v>0.69</v>
+      </c>
+      <c r="K115">
+        <v>0.52</v>
+      </c>
+      <c r="L115" s="2">
+        <v>4791.8412698417696</v>
+      </c>
+      <c r="M115" s="2">
+        <f t="shared" si="7"/>
+        <v>0.75362318840579723</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A116" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E116" s="2">
+        <v>9716.8571428564792</v>
+      </c>
+      <c r="F116" s="2">
+        <f t="shared" si="6"/>
+        <v>0.39189189189189189</v>
+      </c>
+      <c r="H116" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0.82</v>
+      </c>
+      <c r="K116">
+        <v>0.65</v>
+      </c>
+      <c r="L116" s="2">
+        <v>5349.3809523812697</v>
+      </c>
+      <c r="M116" s="2">
+        <f t="shared" si="7"/>
+        <v>0.79268292682926833</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A117" s="19"/>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="E117" s="2">
+        <v>6620.1904761900996</v>
+      </c>
+      <c r="F117" s="2">
+        <f t="shared" si="6"/>
+        <v>0.63380281690140849</v>
+      </c>
+      <c r="H117" s="19"/>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117">
+        <v>0.8</v>
+      </c>
+      <c r="K117">
+        <v>0.61</v>
+      </c>
+      <c r="L117" s="2">
+        <v>5629.9682539682799</v>
+      </c>
+      <c r="M117" s="2">
+        <f t="shared" si="7"/>
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A118" s="19"/>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="E118" s="2">
+        <v>6371.8095238092201</v>
+      </c>
+      <c r="F118" s="2">
+        <f t="shared" si="6"/>
+        <v>0.647887323943662</v>
+      </c>
+      <c r="H118" s="19"/>
+      <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="J118">
+        <v>0.8</v>
+      </c>
+      <c r="K118">
+        <v>0.6</v>
+      </c>
+      <c r="L118" s="2">
+        <v>5728.8571428571004</v>
+      </c>
+      <c r="M118" s="2">
+        <f t="shared" si="7"/>
+        <v>0.74999999999999989</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A119" s="19"/>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="E119" s="2">
+        <v>6549.8730158726403</v>
+      </c>
+      <c r="F119" s="2">
+        <f t="shared" si="6"/>
+        <v>0.61428571428571432</v>
+      </c>
+      <c r="H119" s="19"/>
+      <c r="I119">
+        <v>4</v>
+      </c>
+      <c r="J119">
+        <v>0.78</v>
+      </c>
+      <c r="K119">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L119" s="2">
+        <v>5741.3333333332403</v>
+      </c>
+      <c r="M119" s="2">
+        <f t="shared" si="7"/>
+        <v>0.7435897435897435</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A120" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="E120" s="2">
+        <v>10686.4761904753</v>
+      </c>
+      <c r="F120" s="2">
+        <f t="shared" si="6"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="H120" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0.9</v>
+      </c>
+      <c r="K120">
+        <v>0.67</v>
+      </c>
+      <c r="L120" s="2">
+        <v>6465.9682539678197</v>
+      </c>
+      <c r="M120" s="2">
+        <f t="shared" si="7"/>
+        <v>0.74444444444444446</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A121" s="19"/>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E121" s="2">
+        <v>7292.2222222216096</v>
+      </c>
+      <c r="F121" s="2">
+        <f t="shared" si="6"/>
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="H121" s="19"/>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>0.9</v>
+      </c>
+      <c r="K121">
+        <v>0.7</v>
+      </c>
+      <c r="L121" s="2">
+        <v>6045.1904761903497</v>
+      </c>
+      <c r="M121" s="2">
+        <f t="shared" si="7"/>
+        <v>0.77777777777777768</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A122" s="19"/>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="E122" s="2">
+        <v>7277.6825396819204</v>
+      </c>
+      <c r="F122" s="2">
+        <f t="shared" si="6"/>
+        <v>0.62820512820512819</v>
+      </c>
+      <c r="H122" s="19"/>
+      <c r="I122">
+        <v>3</v>
+      </c>
+      <c r="J122">
+        <v>0.9</v>
+      </c>
+      <c r="K122">
+        <v>0.67</v>
+      </c>
+      <c r="L122" s="2">
+        <v>6345.3174603171001</v>
+      </c>
+      <c r="M122" s="2">
+        <f t="shared" si="7"/>
+        <v>0.74444444444444446</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A123" s="19"/>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="E123" s="2">
+        <v>7064.82539682484</v>
+      </c>
+      <c r="F123" s="2">
+        <f t="shared" si="6"/>
+        <v>0.64556962025316456</v>
+      </c>
+      <c r="H123" s="19"/>
+      <c r="I123">
+        <v>4</v>
+      </c>
+      <c r="J123">
+        <v>0.88</v>
+      </c>
+      <c r="K123">
+        <v>0.65</v>
+      </c>
+      <c r="L123" s="2">
+        <v>6515.9682539677697</v>
+      </c>
+      <c r="M123" s="2">
+        <f t="shared" si="7"/>
+        <v>0.73863636363636365</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A124" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="E124" s="2">
+        <v>7707.9523809516004</v>
+      </c>
+      <c r="F124" s="2">
+        <f t="shared" si="6"/>
+        <v>0.6352941176470589</v>
+      </c>
+      <c r="H124" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0.97</v>
+      </c>
+      <c r="K124">
+        <v>0.72</v>
+      </c>
+      <c r="L124" s="2">
+        <v>7176.9523809515904</v>
+      </c>
+      <c r="M124" s="2">
+        <f t="shared" si="7"/>
+        <v>0.74226804123711343</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A125" s="19"/>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="E125" s="2">
+        <v>7645.4603174595504</v>
+      </c>
+      <c r="F125" s="2">
+        <f t="shared" si="6"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="H125" s="19"/>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>0.97</v>
+      </c>
+      <c r="K125">
+        <v>0.73</v>
+      </c>
+      <c r="L125" s="2">
+        <v>6956.6666666659603</v>
+      </c>
+      <c r="M125" s="2">
+        <f t="shared" si="7"/>
+        <v>0.75257731958762886</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A126" s="19"/>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D126" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="E126" s="2">
+        <v>11864.873015872099</v>
+      </c>
+      <c r="F126" s="2">
+        <f t="shared" si="6"/>
+        <v>0.36470588235294116</v>
+      </c>
+      <c r="H126" s="19"/>
+      <c r="I126">
+        <v>3</v>
+      </c>
+      <c r="J126">
+        <v>0.97</v>
+      </c>
+      <c r="K126">
+        <v>0.74</v>
+      </c>
+      <c r="L126" s="2">
+        <v>6774.82539682479</v>
+      </c>
+      <c r="M126" s="2">
+        <f t="shared" si="7"/>
+        <v>0.7628865979381444</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A127" s="19"/>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="E127" s="2">
+        <v>7651.9047619040102</v>
+      </c>
+      <c r="F127" s="2">
+        <f t="shared" si="6"/>
+        <v>0.6352941176470589</v>
+      </c>
+      <c r="H127" s="19"/>
+      <c r="I127">
+        <v>4</v>
+      </c>
+      <c r="J127">
+        <v>0.98</v>
+      </c>
+      <c r="K127">
+        <v>0.74</v>
+      </c>
+      <c r="L127" s="2">
+        <v>6870.3968253962003</v>
+      </c>
+      <c r="M127" s="2">
+        <f t="shared" si="7"/>
+        <v>0.75510204081632648</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A129" s="20">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="B129" s="16"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
+      <c r="L129" s="16"/>
+      <c r="M129" s="16"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A130" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="H130" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A131" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131" t="s">
+        <v>67</v>
+      </c>
+      <c r="D131" t="s">
+        <v>68</v>
+      </c>
+      <c r="E131" t="s">
+        <v>70</v>
+      </c>
+      <c r="F131" t="s">
+        <v>69</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>66</v>
+      </c>
+      <c r="J131" t="s">
+        <v>67</v>
+      </c>
+      <c r="K131" t="s">
+        <v>68</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M131" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A132" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E132" s="2">
+        <v>2813.5555555556198</v>
+      </c>
+      <c r="F132" s="2">
+        <f>D132/C132</f>
+        <v>0.40909090909090906</v>
+      </c>
+      <c r="H132" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K132">
+        <v>0.23</v>
+      </c>
+      <c r="L132" s="2">
+        <v>1568.7407407406599</v>
+      </c>
+      <c r="M132" s="2">
+        <f>K132/J132</f>
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A133" s="19"/>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E133" s="2">
+        <v>2325.5802469135801</v>
+      </c>
+      <c r="F133" s="2">
+        <f t="shared" ref="F133:F159" si="8">D133/C133</f>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="H133" s="19"/>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K133">
+        <v>0.23</v>
+      </c>
+      <c r="L133" s="2">
+        <v>1539.9876543209</v>
+      </c>
+      <c r="M133" s="2">
+        <f t="shared" ref="M133:M159" si="9">K133/J133</f>
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A134" s="19"/>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E134" s="2">
+        <v>2341.8641975308701</v>
+      </c>
+      <c r="F134" s="2">
+        <f t="shared" si="8"/>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="H134" s="19"/>
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134">
+        <v>0.32</v>
+      </c>
+      <c r="K134">
+        <v>0.27</v>
+      </c>
+      <c r="L134" s="2">
+        <v>1596.98765432089</v>
+      </c>
+      <c r="M134" s="2">
+        <f t="shared" si="9"/>
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A135" s="19"/>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E135" s="2">
+        <v>3381.3209876544502</v>
+      </c>
+      <c r="F135" s="2">
+        <f t="shared" si="8"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="H135" s="19"/>
+      <c r="I135">
+        <v>4</v>
+      </c>
+      <c r="J135">
+        <v>0.24</v>
+      </c>
+      <c r="K135">
+        <v>0.2</v>
+      </c>
+      <c r="L135" s="2">
+        <v>1395.17283950609</v>
+      </c>
+      <c r="M135" s="2">
+        <f t="shared" si="9"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A136" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E136" s="2">
+        <v>3613.0123456792198</v>
+      </c>
+      <c r="F136" s="2">
+        <f t="shared" si="8"/>
+        <v>0.48387096774193544</v>
+      </c>
+      <c r="H136" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0.41</v>
+      </c>
+      <c r="K136">
+        <v>0.35</v>
+      </c>
+      <c r="L136" s="2">
+        <v>2119.17283950605</v>
+      </c>
+      <c r="M136" s="2">
+        <f t="shared" si="9"/>
+        <v>0.85365853658536583</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A137" s="19"/>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E137" s="2">
+        <v>3120.9753086421301</v>
+      </c>
+      <c r="F137" s="2">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="H137" s="19"/>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137">
+        <v>0.33</v>
+      </c>
+      <c r="K137">
+        <v>0.26</v>
+      </c>
+      <c r="L137" s="2">
+        <v>2065.2345679011401</v>
+      </c>
+      <c r="M137" s="2">
+        <f t="shared" si="9"/>
+        <v>0.78787878787878785</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A138" s="19"/>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D138" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E138" s="2">
+        <v>4574.2345679015198</v>
+      </c>
+      <c r="F138" s="2">
+        <f t="shared" si="8"/>
+        <v>0.38888888888888895</v>
+      </c>
+      <c r="H138" s="19"/>
+      <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138">
+        <v>0.37</v>
+      </c>
+      <c r="K138">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L138" s="2">
+        <v>2265.0493827159598</v>
+      </c>
+      <c r="M138" s="2">
+        <f t="shared" si="9"/>
+        <v>0.78378378378378377</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A139" s="19"/>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E139" s="2">
+        <v>3034.59259259275</v>
+      </c>
+      <c r="F139" s="2">
+        <f t="shared" si="8"/>
+        <v>0.56666666666666676</v>
+      </c>
+      <c r="H139" s="19"/>
+      <c r="I139">
+        <v>4</v>
+      </c>
+      <c r="J139">
+        <v>0.37</v>
+      </c>
+      <c r="K139">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L139" s="2">
+        <v>2262.6543209875599</v>
+      </c>
+      <c r="M139" s="2">
+        <f t="shared" si="9"/>
+        <v>0.78378378378378377</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A140" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="E140" s="2">
+        <v>6488.8395061734</v>
+      </c>
+      <c r="F140" s="2">
+        <f t="shared" si="8"/>
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="H140" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0.53</v>
+      </c>
+      <c r="K140">
+        <v>0.41</v>
+      </c>
+      <c r="L140" s="2">
+        <v>3402.9135802473902</v>
+      </c>
+      <c r="M140" s="2">
+        <f t="shared" si="9"/>
+        <v>0.7735849056603773</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A141" s="19"/>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="E141" s="2">
+        <v>4819.3827160499404</v>
+      </c>
+      <c r="F141" s="2">
+        <f t="shared" si="8"/>
+        <v>0.56250000000000011</v>
+      </c>
+      <c r="H141" s="19"/>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K141">
+        <v>0.47</v>
+      </c>
+      <c r="L141" s="2">
+        <v>3072.679012346</v>
+      </c>
+      <c r="M141" s="2">
+        <f t="shared" si="9"/>
+        <v>0.82456140350877194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A142" s="19"/>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="D142" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E142" s="2">
+        <v>4205.7407407412702</v>
+      </c>
+      <c r="F142" s="2">
+        <f t="shared" si="8"/>
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="H142" s="19"/>
+      <c r="I142">
+        <v>3</v>
+      </c>
+      <c r="J142">
+        <v>0.49</v>
+      </c>
+      <c r="K142">
+        <v>0.37</v>
+      </c>
+      <c r="L142" s="2">
+        <v>3309.1728395066102</v>
+      </c>
+      <c r="M142" s="2">
+        <f t="shared" si="9"/>
+        <v>0.75510204081632648</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A143" s="19"/>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E143" s="2">
+        <v>4372.8765432103701</v>
+      </c>
+      <c r="F143" s="2">
+        <f t="shared" si="8"/>
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="H143" s="19"/>
+      <c r="I143">
+        <v>4</v>
+      </c>
+      <c r="J143">
+        <v>0.53</v>
+      </c>
+      <c r="K143">
+        <v>0.41</v>
+      </c>
+      <c r="L143" s="2">
+        <v>3388.35802469184</v>
+      </c>
+      <c r="M143" s="2">
+        <f t="shared" si="9"/>
+        <v>0.7735849056603773</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A144" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E144" s="2">
+        <v>8289.0987654328692</v>
+      </c>
+      <c r="F144" s="2">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="H144" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0.66</v>
+      </c>
+      <c r="K144">
+        <v>0.49</v>
+      </c>
+      <c r="L144" s="2">
+        <v>4508.9259259268802</v>
+      </c>
+      <c r="M144" s="2">
+        <f t="shared" si="9"/>
+        <v>0.74242424242424243</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A145" s="19"/>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="E145" s="2">
+        <v>5872.1728395070604</v>
+      </c>
+      <c r="F145" s="2">
+        <f t="shared" si="8"/>
+        <v>0.58064516129032251</v>
+      </c>
+      <c r="H145" s="19"/>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145">
+        <v>0.72</v>
+      </c>
+      <c r="K145">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L145" s="2">
+        <v>4147.0740740749998</v>
+      </c>
+      <c r="M145" s="2">
+        <f t="shared" si="9"/>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A146" s="19"/>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E146" s="2">
+        <v>5528.5432098773799</v>
+      </c>
+      <c r="F146" s="2">
+        <f t="shared" si="8"/>
+        <v>0.59322033898305082</v>
+      </c>
+      <c r="H146" s="19"/>
+      <c r="I146">
+        <v>3</v>
+      </c>
+      <c r="J146">
+        <v>0.69</v>
+      </c>
+      <c r="K146">
+        <v>0.52</v>
+      </c>
+      <c r="L146" s="2">
+        <v>4459.1851851861702</v>
+      </c>
+      <c r="M146" s="2">
+        <f t="shared" si="9"/>
+        <v>0.75362318840579723</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A147" s="19"/>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="E147" s="2">
+        <v>5279.7654320996498</v>
+      </c>
+      <c r="F147" s="2">
+        <f t="shared" si="8"/>
+        <v>0.63934426229508201</v>
+      </c>
+      <c r="H147" s="19"/>
+      <c r="I147">
+        <v>4</v>
+      </c>
+      <c r="J147">
+        <v>0.69</v>
+      </c>
+      <c r="K147">
+        <v>0.52</v>
+      </c>
+      <c r="L147" s="2">
+        <v>4499.9506172849497</v>
+      </c>
+      <c r="M147" s="2">
+        <f t="shared" si="9"/>
+        <v>0.75362318840579723</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A148" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E148" s="2">
+        <v>9526.7407407416395</v>
+      </c>
+      <c r="F148" s="2">
+        <f t="shared" si="8"/>
+        <v>0.39189189189189189</v>
+      </c>
+      <c r="H148" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0.8</v>
+      </c>
+      <c r="K148">
+        <v>0.61</v>
+      </c>
+      <c r="L148" s="2">
+        <v>5244.2716049396204</v>
+      </c>
+      <c r="M148" s="2">
+        <f t="shared" si="9"/>
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A149" s="19"/>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="E149" s="2">
+        <v>6665.3827160505098</v>
+      </c>
+      <c r="F149" s="2">
+        <f t="shared" si="8"/>
+        <v>0.60563380281690138</v>
+      </c>
+      <c r="H149" s="19"/>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149">
+        <v>0.82</v>
+      </c>
+      <c r="K149">
+        <v>0.65</v>
+      </c>
+      <c r="L149" s="2">
+        <v>4939.0493827173595</v>
+      </c>
+      <c r="M149" s="2">
+        <f t="shared" si="9"/>
+        <v>0.79268292682926833</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A150" s="19"/>
+      <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="C150" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="E150" s="2">
+        <v>6088.76543209991</v>
+      </c>
+      <c r="F150" s="2">
+        <f t="shared" si="8"/>
+        <v>0.647887323943662</v>
+      </c>
+      <c r="H150" s="19"/>
+      <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150">
+        <v>0.8</v>
+      </c>
+      <c r="K150">
+        <v>0.6</v>
+      </c>
+      <c r="L150" s="2">
+        <v>5347.3086419766596</v>
+      </c>
+      <c r="M150" s="2">
+        <f t="shared" si="9"/>
+        <v>0.74999999999999989</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A151" s="19"/>
+      <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="E151" s="2">
+        <v>6356.4197530875099</v>
+      </c>
+      <c r="F151" s="2">
+        <f t="shared" si="8"/>
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="H151" s="19"/>
+      <c r="I151">
+        <v>4</v>
+      </c>
+      <c r="J151">
+        <v>0.78</v>
+      </c>
+      <c r="K151">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L151" s="2">
+        <v>5375.2098765445298</v>
+      </c>
+      <c r="M151" s="2">
+        <f t="shared" si="9"/>
+        <v>0.7435897435897435</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A152" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="E152" s="2">
+        <v>7343.2098765445198</v>
+      </c>
+      <c r="F152" s="2">
+        <f t="shared" si="8"/>
+        <v>0.60759493670886067</v>
+      </c>
+      <c r="H152" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0.9</v>
+      </c>
+      <c r="K152">
+        <v>0.7</v>
+      </c>
+      <c r="L152" s="2">
+        <v>5598.8024691374003</v>
+      </c>
+      <c r="M152" s="2">
+        <f t="shared" si="9"/>
+        <v>0.77777777777777768</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A153" s="19"/>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="E153" s="2">
+        <v>10481.802469136701</v>
+      </c>
+      <c r="F153" s="2">
+        <f t="shared" si="8"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="H153" s="19"/>
+      <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153">
+        <v>0.9</v>
+      </c>
+      <c r="K153">
+        <v>0.67</v>
+      </c>
+      <c r="L153" s="2">
+        <v>5918.4074074090304</v>
+      </c>
+      <c r="M153" s="2">
+        <f t="shared" si="9"/>
+        <v>0.74444444444444446</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A154" s="19"/>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="E154" s="2">
+        <v>6750.9382716062801</v>
+      </c>
+      <c r="F154" s="2">
+        <f t="shared" si="8"/>
+        <v>0.64556962025316456</v>
+      </c>
+      <c r="H154" s="19"/>
+      <c r="I154">
+        <v>3</v>
+      </c>
+      <c r="J154">
+        <v>0.88</v>
+      </c>
+      <c r="K154">
+        <v>0.65</v>
+      </c>
+      <c r="L154" s="2">
+        <v>6102.2716049398896</v>
+      </c>
+      <c r="M154" s="2">
+        <f t="shared" si="9"/>
+        <v>0.73863636363636365</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A155" s="19"/>
+      <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="E155" s="2">
+        <v>7047.50617284082</v>
+      </c>
+      <c r="F155" s="2">
+        <f t="shared" si="8"/>
+        <v>0.61538461538461531</v>
+      </c>
+      <c r="H155" s="19"/>
+      <c r="I155">
+        <v>4</v>
+      </c>
+      <c r="J155">
+        <v>0.9</v>
+      </c>
+      <c r="K155">
+        <v>0.67</v>
+      </c>
+      <c r="L155" s="2">
+        <v>6042.3456790139799</v>
+      </c>
+      <c r="M155" s="2">
+        <f t="shared" si="9"/>
+        <v>0.74444444444444446</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A156" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D156" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="E156" s="2">
+        <v>11671.3703703713</v>
+      </c>
+      <c r="F156" s="2">
+        <f t="shared" si="8"/>
+        <v>0.36470588235294116</v>
+      </c>
+      <c r="H156" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>0.97</v>
+      </c>
+      <c r="K156">
+        <v>0.72</v>
+      </c>
+      <c r="L156" s="2">
+        <v>6720.86419753273</v>
+      </c>
+      <c r="M156" s="2">
+        <f t="shared" si="9"/>
+        <v>0.74226804123711343</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A157" s="19"/>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E157" s="2">
+        <v>7384.9382716064201</v>
+      </c>
+      <c r="F157" s="2">
+        <f t="shared" si="8"/>
+        <v>0.63095238095238104</v>
+      </c>
+      <c r="H157" s="19"/>
+      <c r="I157">
+        <v>2</v>
+      </c>
+      <c r="J157">
+        <v>0.97</v>
+      </c>
+      <c r="K157">
+        <v>0.74</v>
+      </c>
+      <c r="L157" s="2">
+        <v>6304.1728395080199</v>
+      </c>
+      <c r="M157" s="2">
+        <f t="shared" si="9"/>
+        <v>0.7628865979381444</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A158" s="19"/>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D158" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E158" s="2">
+        <v>7707.6049382730598</v>
+      </c>
+      <c r="F158" s="2">
+        <f t="shared" si="8"/>
+        <v>0.61176470588235299</v>
+      </c>
+      <c r="H158" s="19"/>
+      <c r="I158">
+        <v>3</v>
+      </c>
+      <c r="J158">
+        <v>0.97</v>
+      </c>
+      <c r="K158">
+        <v>0.73</v>
+      </c>
+      <c r="L158" s="2">
+        <v>6494.1234567919901</v>
+      </c>
+      <c r="M158" s="2">
+        <f t="shared" si="9"/>
+        <v>0.75257731958762886</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A159" s="19"/>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="E159" s="2">
+        <v>7379.4567901249302</v>
+      </c>
+      <c r="F159" s="2">
+        <f t="shared" si="8"/>
+        <v>0.6352941176470589</v>
+      </c>
+      <c r="H159" s="19"/>
+      <c r="I159">
+        <v>4</v>
+      </c>
+      <c r="J159">
+        <v>0.98</v>
+      </c>
+      <c r="K159">
+        <v>0.74</v>
+      </c>
+      <c r="L159" s="2">
+        <v>6402.0864197549399</v>
+      </c>
+      <c r="M159" s="2">
+        <f t="shared" si="9"/>
+        <v>0.75510204081632648</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A161" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="B161" s="16"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="16"/>
+      <c r="I161" s="16"/>
+      <c r="J161" s="16"/>
+      <c r="K161" s="16"/>
+      <c r="L161" s="16"/>
+      <c r="M161" s="16"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A162" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B162" s="17"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
+      <c r="H162" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I162" s="17"/>
+      <c r="J162" s="17"/>
+      <c r="K162" s="17"/>
+      <c r="L162" s="17"/>
+      <c r="M162" s="17"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A163" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>66</v>
+      </c>
+      <c r="C163" t="s">
+        <v>67</v>
+      </c>
+      <c r="D163" t="s">
+        <v>68</v>
+      </c>
+      <c r="E163" t="s">
+        <v>70</v>
+      </c>
+      <c r="F163" t="s">
+        <v>69</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I163" t="s">
+        <v>66</v>
+      </c>
+      <c r="J163" t="s">
+        <v>67</v>
+      </c>
+      <c r="K163" t="s">
+        <v>68</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M163" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A164" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E164" s="2">
+        <v>2501.8282828281899</v>
+      </c>
+      <c r="F164" s="2">
+        <f>D164/C164</f>
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="H164" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>0.32</v>
+      </c>
+      <c r="K164">
+        <v>0.27</v>
+      </c>
+      <c r="L164" s="2">
+        <v>1487.73737373732</v>
+      </c>
+      <c r="M164" s="2">
+        <f>K164/J164</f>
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A165" s="19"/>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E165" s="2">
+        <v>3338.5555555554502</v>
+      </c>
+      <c r="F165" s="2">
+        <f t="shared" ref="F165:F191" si="10">D165/C165</f>
+        <v>0.4</v>
+      </c>
+      <c r="H165" s="19"/>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165">
+        <v>0.24</v>
+      </c>
+      <c r="K165">
+        <v>0.2</v>
+      </c>
+      <c r="L165" s="2">
+        <v>1315.60606060603</v>
+      </c>
+      <c r="M165" s="2">
+        <f t="shared" ref="M165:M191" si="11">K165/J165</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A166" s="19"/>
+      <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E166" s="2">
+        <v>2839.1818181817298</v>
+      </c>
+      <c r="F166" s="2">
+        <f t="shared" si="10"/>
+        <v>0.40909090909090906</v>
+      </c>
+      <c r="H166" s="19"/>
+      <c r="I166">
+        <v>3</v>
+      </c>
+      <c r="J166">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K166">
+        <v>0.23</v>
+      </c>
+      <c r="L166" s="2">
+        <v>1446.87878787874</v>
+      </c>
+      <c r="M166" s="2">
+        <f t="shared" si="11"/>
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A167" s="19"/>
+      <c r="B167">
+        <v>4</v>
+      </c>
+      <c r="C167" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E167" s="2">
+        <v>2305.1010101009401</v>
+      </c>
+      <c r="F167" s="2">
+        <f t="shared" si="10"/>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="H167" s="19"/>
+      <c r="I167">
+        <v>4</v>
+      </c>
+      <c r="J167">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K167">
+        <v>0.23</v>
+      </c>
+      <c r="L167" s="2">
+        <v>1475.8181818181199</v>
+      </c>
+      <c r="M167" s="2">
+        <f t="shared" si="11"/>
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A168" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E168" s="2">
+        <v>3085.19191919177</v>
+      </c>
+      <c r="F168" s="2">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="H168" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0.33</v>
+      </c>
+      <c r="K168">
+        <v>0.26</v>
+      </c>
+      <c r="L168" s="2">
+        <v>1960.7070707068999</v>
+      </c>
+      <c r="M168" s="2">
+        <f t="shared" si="11"/>
+        <v>0.78787878787878785</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A169" s="19"/>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E169" s="2">
+        <v>3708.6565656564098</v>
+      </c>
+      <c r="F169" s="2">
+        <f t="shared" si="10"/>
+        <v>0.45161290322580649</v>
+      </c>
+      <c r="H169" s="19"/>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <v>0.41</v>
+      </c>
+      <c r="K169">
+        <v>0.35</v>
+      </c>
+      <c r="L169" s="2">
+        <v>1979.20202020183</v>
+      </c>
+      <c r="M169" s="2">
+        <f t="shared" si="11"/>
+        <v>0.85365853658536583</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A170" s="19"/>
+      <c r="B170">
+        <v>3</v>
+      </c>
+      <c r="C170" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E170" s="2">
+        <v>3267.5555555553901</v>
+      </c>
+      <c r="F170" s="2">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="H170" s="19"/>
+      <c r="I170">
+        <v>3</v>
+      </c>
+      <c r="J170">
+        <v>0.37</v>
+      </c>
+      <c r="K170">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L170" s="2">
+        <v>2144.5555555553401</v>
+      </c>
+      <c r="M170" s="2">
+        <f t="shared" si="11"/>
+        <v>0.78378378378378377</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A171" s="19"/>
+      <c r="B171">
+        <v>4</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E171" s="2">
+        <v>4509.7979797977996</v>
+      </c>
+      <c r="F171" s="2">
+        <f t="shared" si="10"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="H171" s="19"/>
+      <c r="I171">
+        <v>4</v>
+      </c>
+      <c r="J171">
+        <v>0.37</v>
+      </c>
+      <c r="K171">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L171" s="2">
+        <v>2147.36363636343</v>
+      </c>
+      <c r="M171" s="2">
+        <f t="shared" si="11"/>
+        <v>0.78378378378378377</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A172" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="E172" s="2">
+        <v>6386.8282828279898</v>
+      </c>
+      <c r="F172" s="2">
+        <f t="shared" si="10"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="H172" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0.53</v>
+      </c>
+      <c r="K172">
+        <v>0.41</v>
+      </c>
+      <c r="L172" s="2">
+        <v>3239.0707070702802</v>
+      </c>
+      <c r="M172" s="2">
+        <f t="shared" si="11"/>
+        <v>0.7735849056603773</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A173" s="19"/>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E173" s="2">
+        <v>4305.8282828279798</v>
+      </c>
+      <c r="F173" s="2">
+        <f t="shared" si="10"/>
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="H173" s="19"/>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173">
+        <v>0.49</v>
+      </c>
+      <c r="K173">
+        <v>0.37</v>
+      </c>
+      <c r="L173" s="2">
+        <v>3160.4545454541599</v>
+      </c>
+      <c r="M173" s="2">
+        <f t="shared" si="11"/>
+        <v>0.75510204081632648</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A174" s="19"/>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="E174" s="2">
+        <v>4438.3737373734002</v>
+      </c>
+      <c r="F174" s="2">
+        <f t="shared" si="10"/>
+        <v>0.57446808510638303</v>
+      </c>
+      <c r="H174" s="19"/>
+      <c r="I174">
+        <v>3</v>
+      </c>
+      <c r="J174">
+        <v>0.53</v>
+      </c>
+      <c r="K174">
+        <v>0.41</v>
+      </c>
+      <c r="L174" s="2">
+        <v>3224.4343434339198</v>
+      </c>
+      <c r="M174" s="2">
+        <f t="shared" si="11"/>
+        <v>0.7735849056603773</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A175" s="19"/>
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="C175" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E175" s="2">
+        <v>4936.9797979794803</v>
+      </c>
+      <c r="F175" s="2">
+        <f t="shared" si="10"/>
+        <v>0.53191489361702127</v>
+      </c>
+      <c r="H175" s="19"/>
+      <c r="I175">
+        <v>4</v>
+      </c>
+      <c r="J175">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K175">
+        <v>0.47</v>
+      </c>
+      <c r="L175" s="2">
+        <v>2884.57575757533</v>
+      </c>
+      <c r="M175" s="2">
+        <f t="shared" si="11"/>
+        <v>0.82456140350877194</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A176" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E176" s="2">
+        <v>8171.8080808077502</v>
+      </c>
+      <c r="F176" s="2">
+        <f t="shared" si="10"/>
+        <v>0.40625</v>
+      </c>
+      <c r="H176" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0.66</v>
+      </c>
+      <c r="K176">
+        <v>0.49</v>
+      </c>
+      <c r="L176" s="2">
+        <v>4311.7474747468796</v>
+      </c>
+      <c r="M176" s="2">
+        <f t="shared" si="11"/>
+        <v>0.74242424242424243</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A177" s="19"/>
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="E177" s="2">
+        <v>5512.9494949490199</v>
+      </c>
+      <c r="F177" s="2">
+        <f t="shared" si="10"/>
+        <v>0.60655737704918034</v>
+      </c>
+      <c r="H177" s="19"/>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177">
+        <v>0.69</v>
+      </c>
+      <c r="K177">
+        <v>0.52</v>
+      </c>
+      <c r="L177" s="2">
+        <v>4289.7979797973603</v>
+      </c>
+      <c r="M177" s="2">
+        <f t="shared" si="11"/>
+        <v>0.75362318840579723</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A178" s="19"/>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E178" s="2">
+        <v>5414.0606060601503</v>
+      </c>
+      <c r="F178" s="2">
+        <f t="shared" si="10"/>
+        <v>0.60344827586206895</v>
+      </c>
+      <c r="H178" s="19"/>
+      <c r="I178">
+        <v>3</v>
+      </c>
+      <c r="J178">
+        <v>0.69</v>
+      </c>
+      <c r="K178">
+        <v>0.52</v>
+      </c>
+      <c r="L178" s="2">
+        <v>4247.4949494943303</v>
+      </c>
+      <c r="M178" s="2">
+        <f t="shared" si="11"/>
+        <v>0.75362318840579723</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A179" s="19"/>
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="C179" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="E179" s="2">
+        <v>6001.2727272722695</v>
+      </c>
+      <c r="F179" s="2">
+        <f t="shared" si="10"/>
+        <v>0.55737704918032793</v>
+      </c>
+      <c r="H179" s="19"/>
+      <c r="I179">
+        <v>4</v>
+      </c>
+      <c r="J179">
+        <v>0.72</v>
+      </c>
+      <c r="K179">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L179" s="2">
+        <v>3915.1212121205699</v>
+      </c>
+      <c r="M179" s="2">
+        <f t="shared" si="11"/>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A180" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="E180" s="2">
+        <v>6216.5454545448802</v>
+      </c>
+      <c r="F180" s="2">
+        <f t="shared" si="10"/>
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="H180" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0.78</v>
+      </c>
+      <c r="K180">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L180" s="2">
+        <v>5142.2222222214796</v>
+      </c>
+      <c r="M180" s="2">
+        <f t="shared" si="11"/>
+        <v>0.7435897435897435</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A181" s="19"/>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="D181" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E181" s="2">
+        <v>9407.1212121214594</v>
+      </c>
+      <c r="F181" s="2">
+        <f t="shared" si="10"/>
+        <v>0.39726027397260272</v>
+      </c>
+      <c r="H181" s="19"/>
+      <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181">
+        <v>0.82</v>
+      </c>
+      <c r="K181">
+        <v>0.65</v>
+      </c>
+      <c r="L181" s="2">
+        <v>4677.9292929285302</v>
+      </c>
+      <c r="M181" s="2">
+        <f t="shared" si="11"/>
+        <v>0.79268292682926833</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A182" s="19"/>
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="E182" s="2">
+        <v>6122.0808080802099</v>
+      </c>
+      <c r="F182" s="2">
+        <f t="shared" si="10"/>
+        <v>0.61971830985915499</v>
+      </c>
+      <c r="H182" s="19"/>
+      <c r="I182">
+        <v>3</v>
+      </c>
+      <c r="J182">
+        <v>0.8</v>
+      </c>
+      <c r="K182">
+        <v>0.61</v>
+      </c>
+      <c r="L182" s="2">
+        <v>4998.8282828275196</v>
+      </c>
+      <c r="M182" s="2">
+        <f t="shared" si="11"/>
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A183" s="19"/>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="E183" s="2">
+        <v>6823.4545454539802</v>
+      </c>
+      <c r="F183" s="2">
+        <f t="shared" si="10"/>
+        <v>0.57746478873239437</v>
+      </c>
+      <c r="H183" s="19"/>
+      <c r="I183">
+        <v>4</v>
+      </c>
+      <c r="J183">
+        <v>0.8</v>
+      </c>
+      <c r="K183">
+        <v>0.6</v>
+      </c>
+      <c r="L183" s="2">
+        <v>5104.50505050429</v>
+      </c>
+      <c r="M183" s="2">
+        <f t="shared" si="11"/>
+        <v>0.74999999999999989</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A184" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="E184" s="2">
+        <v>10354.3838383845</v>
+      </c>
+      <c r="F184" s="2">
+        <f t="shared" si="10"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="H184" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0.9</v>
+      </c>
+      <c r="K184">
+        <v>0.7</v>
+      </c>
+      <c r="L184" s="2">
+        <v>5314.7777777769697</v>
+      </c>
+      <c r="M184" s="2">
+        <f t="shared" si="11"/>
+        <v>0.77777777777777768</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A185" s="19"/>
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="E185" s="2">
+        <v>6885.3232323225702</v>
+      </c>
+      <c r="F185" s="2">
+        <f t="shared" si="10"/>
+        <v>0.61538461538461531</v>
+      </c>
+      <c r="H185" s="19"/>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>0.9</v>
+      </c>
+      <c r="K185">
+        <v>0.67</v>
+      </c>
+      <c r="L185" s="2">
+        <v>5644.9191919183704</v>
+      </c>
+      <c r="M185" s="2">
+        <f t="shared" si="11"/>
+        <v>0.74444444444444446</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A186" s="19"/>
+      <c r="B186">
+        <v>3</v>
+      </c>
+      <c r="C186" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E186" s="2">
+        <v>6765.3939393933097</v>
+      </c>
+      <c r="F186" s="2">
+        <f t="shared" si="10"/>
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="H186" s="19"/>
+      <c r="I186">
+        <v>3</v>
+      </c>
+      <c r="J186">
+        <v>0.9</v>
+      </c>
+      <c r="K186">
+        <v>0.67</v>
+      </c>
+      <c r="L186" s="2">
+        <v>5773.0303030294799</v>
+      </c>
+      <c r="M186" s="2">
+        <f t="shared" si="11"/>
+        <v>0.74444444444444446</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A187" s="19"/>
+      <c r="B187">
+        <v>4</v>
+      </c>
+      <c r="C187" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="D187" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="E187" s="2">
+        <v>7522.6565656561097</v>
+      </c>
+      <c r="F187" s="2">
+        <f t="shared" si="10"/>
+        <v>0.58227848101265822</v>
+      </c>
+      <c r="H187" s="19"/>
+      <c r="I187">
+        <v>4</v>
+      </c>
+      <c r="J187">
+        <v>0.88</v>
+      </c>
+      <c r="K187">
+        <v>0.65</v>
+      </c>
+      <c r="L187" s="2">
+        <v>5839.2525252516598</v>
+      </c>
+      <c r="M187" s="2">
+        <f t="shared" si="11"/>
+        <v>0.73863636363636365</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A188" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="E188" s="2">
+        <v>11550.8282828294</v>
+      </c>
+      <c r="F188" s="2">
+        <f t="shared" si="10"/>
+        <v>0.3604651162790698</v>
+      </c>
+      <c r="H188" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0.97</v>
+      </c>
+      <c r="K188">
+        <v>0.74</v>
+      </c>
+      <c r="L188" s="2">
+        <v>6004.6666666657802</v>
+      </c>
+      <c r="M188" s="2">
+        <f t="shared" si="11"/>
+        <v>0.7628865979381444</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A189" s="19"/>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D189" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E189" s="2">
+        <v>7384.89898989835</v>
+      </c>
+      <c r="F189" s="2">
+        <f t="shared" si="10"/>
+        <v>0.62352941176470589</v>
+      </c>
+      <c r="H189" s="19"/>
+      <c r="I189">
+        <v>2</v>
+      </c>
+      <c r="J189">
+        <v>0.97</v>
+      </c>
+      <c r="K189">
+        <v>0.72</v>
+      </c>
+      <c r="L189" s="2">
+        <v>6430.6262626253902</v>
+      </c>
+      <c r="M189" s="2">
+        <f t="shared" si="11"/>
+        <v>0.74226804123711343</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A190" s="19"/>
+      <c r="B190">
+        <v>3</v>
+      </c>
+      <c r="C190" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D190" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E190" s="2">
+        <v>7885.4949494945804</v>
+      </c>
+      <c r="F190" s="2">
+        <f t="shared" si="10"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="H190" s="19"/>
+      <c r="I190">
+        <v>3</v>
+      </c>
+      <c r="J190">
+        <v>0.98</v>
+      </c>
+      <c r="K190">
+        <v>0.74</v>
+      </c>
+      <c r="L190" s="2">
+        <v>6104.07070706984</v>
+      </c>
+      <c r="M190" s="2">
+        <f t="shared" si="11"/>
+        <v>0.75510204081632648</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A191" s="19"/>
+      <c r="B191">
+        <v>4</v>
+      </c>
+      <c r="C191" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E191" s="2">
+        <v>7203.7777777770998</v>
+      </c>
+      <c r="F191" s="2">
+        <f t="shared" si="10"/>
+        <v>0.63095238095238104</v>
+      </c>
+      <c r="H191" s="19"/>
+      <c r="I191">
+        <v>4</v>
+      </c>
+      <c r="J191">
+        <v>0.97</v>
+      </c>
+      <c r="K191">
+        <v>0.73</v>
+      </c>
+      <c r="L191" s="2">
+        <v>6199.7777777768697</v>
+      </c>
+      <c r="M191" s="2">
+        <f t="shared" si="11"/>
+        <v>0.75257731958762886</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A193" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B193" s="21"/>
+      <c r="C193" s="21"/>
+      <c r="D193" s="21"/>
+      <c r="E193" s="21"/>
+      <c r="F193" s="21"/>
+      <c r="G193" s="21"/>
+      <c r="H193" s="21"/>
+      <c r="I193" s="21"/>
+      <c r="J193" s="21"/>
+      <c r="K193" s="21"/>
+      <c r="L193" s="21"/>
+      <c r="M193" s="21"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A194" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B194" s="17"/>
+      <c r="C194" s="17"/>
+      <c r="D194" s="17"/>
+      <c r="E194" s="17"/>
+      <c r="F194" s="17"/>
+      <c r="H194" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I194" s="17"/>
+      <c r="J194" s="17"/>
+      <c r="K194" s="17"/>
+      <c r="L194" s="17"/>
+      <c r="M194" s="17"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A195" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>66</v>
+      </c>
+      <c r="C195" t="s">
+        <v>67</v>
+      </c>
+      <c r="D195" t="s">
+        <v>68</v>
+      </c>
+      <c r="E195" t="s">
+        <v>70</v>
+      </c>
+      <c r="F195" t="s">
+        <v>69</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I195" t="s">
+        <v>66</v>
+      </c>
+      <c r="J195" t="s">
+        <v>67</v>
+      </c>
+      <c r="K195" t="s">
+        <v>68</v>
+      </c>
+      <c r="L195" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M195" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A196" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D196" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E196" s="2">
+        <v>2735.61375661383</v>
+      </c>
+      <c r="F196" s="2">
+        <f>D196/C196</f>
+        <v>0.40909090909090906</v>
+      </c>
+      <c r="H196" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0.32</v>
+      </c>
+      <c r="K196">
+        <v>0.27</v>
+      </c>
+      <c r="L196" s="2">
+        <v>1253.62962962959</v>
+      </c>
+      <c r="M196" s="2">
+        <f>K196/J196</f>
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A197" s="19"/>
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="C197" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="D197" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E197" s="2">
+        <v>2784.6772486773302</v>
+      </c>
+      <c r="F197" s="2">
+        <f t="shared" ref="F197:F223" si="12">D197/C197</f>
+        <v>0.40909090909090906</v>
+      </c>
+      <c r="H197" s="19"/>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K197">
+        <v>0.23</v>
+      </c>
+      <c r="L197" s="2">
+        <v>1276.69841269838</v>
+      </c>
+      <c r="M197" s="2">
+        <f t="shared" ref="M197:M223" si="13">K197/J197</f>
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A198" s="19"/>
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="D198" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E198" s="2">
+        <v>2232.8465608465699</v>
+      </c>
+      <c r="F198" s="2">
+        <f t="shared" si="12"/>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="H198" s="19"/>
+      <c r="I198">
+        <v>3</v>
+      </c>
+      <c r="J198">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K198">
+        <v>0.23</v>
+      </c>
+      <c r="L198" s="2">
+        <v>1247.3597883597499</v>
+      </c>
+      <c r="M198" s="2">
+        <f t="shared" si="13"/>
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A199" s="19"/>
+      <c r="B199">
+        <v>4</v>
+      </c>
+      <c r="C199" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D199" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E199" s="2">
+        <v>3253.4973544974901</v>
+      </c>
+      <c r="F199" s="2">
+        <f t="shared" si="12"/>
+        <v>0.4</v>
+      </c>
+      <c r="H199" s="19"/>
+      <c r="I199">
+        <v>4</v>
+      </c>
+      <c r="J199">
+        <v>0.24</v>
+      </c>
+      <c r="K199">
+        <v>0.2</v>
+      </c>
+      <c r="L199" s="2">
+        <v>1145.1058201057799</v>
+      </c>
+      <c r="M199" s="2">
+        <f t="shared" si="13"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A200" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E200" s="2">
+        <v>4387.5502645505703</v>
+      </c>
+      <c r="F200" s="2">
+        <f t="shared" si="12"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="H200" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0.37</v>
+      </c>
+      <c r="K200">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L200" s="2">
+        <v>1891.4867724867399</v>
+      </c>
+      <c r="M200" s="2">
+        <f t="shared" si="13"/>
+        <v>0.78378378378378377</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A201" s="19"/>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D201" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="E201" s="2">
+        <v>3839.3650793653201</v>
+      </c>
+      <c r="F201" s="2">
+        <f t="shared" si="12"/>
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="H201" s="19"/>
+      <c r="I201">
+        <v>2</v>
+      </c>
+      <c r="J201">
+        <v>0.37</v>
+      </c>
+      <c r="K201">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L201" s="2">
+        <v>1895.17989417986</v>
+      </c>
+      <c r="M201" s="2">
+        <f t="shared" si="13"/>
+        <v>0.78378378378378377</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A202" s="19"/>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D202" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="E202" s="2">
+        <v>3843.1534391536802</v>
+      </c>
+      <c r="F202" s="2">
+        <f t="shared" si="12"/>
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="H202" s="19"/>
+      <c r="I202">
+        <v>3</v>
+      </c>
+      <c r="J202">
+        <v>0.33</v>
+      </c>
+      <c r="K202">
+        <v>0.26</v>
+      </c>
+      <c r="L202" s="2">
+        <v>1736.7195767195401</v>
+      </c>
+      <c r="M202" s="2">
+        <f t="shared" si="13"/>
+        <v>0.78787878787878785</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A203" s="19"/>
+      <c r="B203">
+        <v>4</v>
+      </c>
+      <c r="C203" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D203" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E203" s="2">
+        <v>3211.5608465610198</v>
+      </c>
+      <c r="F203" s="2">
+        <f t="shared" si="12"/>
+        <v>0.42857142857142849</v>
+      </c>
+      <c r="H203" s="19"/>
+      <c r="I203">
+        <v>4</v>
+      </c>
+      <c r="J203">
+        <v>0.41</v>
+      </c>
+      <c r="K203">
+        <v>0.35</v>
+      </c>
+      <c r="L203" s="2">
+        <v>1679.26455026451</v>
+      </c>
+      <c r="M203" s="2">
+        <f t="shared" si="13"/>
+        <v>0.85365853658536583</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A204" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E204" s="2">
+        <v>6153.7777777782103</v>
+      </c>
+      <c r="F204" s="2">
+        <f t="shared" si="12"/>
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="H204" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>0.53</v>
+      </c>
+      <c r="K204">
+        <v>0.41</v>
+      </c>
+      <c r="L204" s="2">
+        <v>2873.1693121696499</v>
+      </c>
+      <c r="M204" s="2">
+        <f t="shared" si="13"/>
+        <v>0.7735849056603773</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A205" s="19"/>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E205" s="2">
+        <v>4697.2275132278801</v>
+      </c>
+      <c r="F205" s="2">
+        <f t="shared" si="12"/>
+        <v>0.41025641025641024</v>
+      </c>
+      <c r="H205" s="19"/>
+      <c r="I205">
+        <v>2</v>
+      </c>
+      <c r="J205">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K205">
+        <v>0.47</v>
+      </c>
+      <c r="L205" s="2">
+        <v>2481.49735449733</v>
+      </c>
+      <c r="M205" s="2">
+        <f t="shared" si="13"/>
+        <v>0.82456140350877194</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A206" s="19"/>
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="D206" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E206" s="2">
+        <v>5279.6560846564998</v>
+      </c>
+      <c r="F206" s="2">
+        <f t="shared" si="12"/>
+        <v>0.38095238095238099</v>
+      </c>
+      <c r="H206" s="19"/>
+      <c r="I206">
+        <v>3</v>
+      </c>
+      <c r="J206">
+        <v>0.53</v>
+      </c>
+      <c r="K206">
+        <v>0.41</v>
+      </c>
+      <c r="L206" s="2">
+        <v>2887.9788359791701</v>
+      </c>
+      <c r="M206" s="2">
+        <f t="shared" si="13"/>
+        <v>0.7735849056603773</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A207" s="19"/>
+      <c r="B207">
+        <v>4</v>
+      </c>
+      <c r="C207" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E207" s="2">
+        <v>5325.5185185189403</v>
+      </c>
+      <c r="F207" s="2">
+        <f t="shared" si="12"/>
+        <v>0.38095238095238099</v>
+      </c>
+      <c r="H207" s="19"/>
+      <c r="I207">
+        <v>4</v>
+      </c>
+      <c r="J207">
+        <v>0.49</v>
+      </c>
+      <c r="K207">
+        <v>0.37</v>
+      </c>
+      <c r="L207" s="2">
+        <v>2841.7724867728298</v>
+      </c>
+      <c r="M207" s="2">
+        <f t="shared" si="13"/>
+        <v>0.75510204081632648</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A208" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="E208" s="2">
+        <v>6627.3068783075496</v>
+      </c>
+      <c r="F208" s="2">
+        <f t="shared" si="12"/>
+        <v>0.41818181818181815</v>
+      </c>
+      <c r="H208" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>0.72</v>
+      </c>
+      <c r="K208">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L208" s="2">
+        <v>3418.0793650800701</v>
+      </c>
+      <c r="M208" s="2">
+        <f t="shared" si="13"/>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A209" s="19"/>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="E209" s="2">
+        <v>5974.6243386249798</v>
+      </c>
+      <c r="F209" s="2">
+        <f t="shared" si="12"/>
+        <v>0.46153846153846151</v>
+      </c>
+      <c r="H209" s="19"/>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209">
+        <v>0.69</v>
+      </c>
+      <c r="K209">
+        <v>0.52</v>
+      </c>
+      <c r="L209" s="2">
+        <v>3839.4708994718198</v>
+      </c>
+      <c r="M209" s="2">
+        <f t="shared" si="13"/>
+        <v>0.75362318840579723</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A210" s="19"/>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E210" s="2">
+        <v>7893.9417989424201</v>
+      </c>
+      <c r="F210" s="2">
+        <f t="shared" si="12"/>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="H210" s="19"/>
+      <c r="I210">
+        <v>3</v>
+      </c>
+      <c r="J210">
+        <v>0.66</v>
+      </c>
+      <c r="K210">
+        <v>0.49</v>
+      </c>
+      <c r="L210" s="2">
+        <v>3889.2222222231298</v>
+      </c>
+      <c r="M210" s="2">
+        <f t="shared" si="13"/>
+        <v>0.74242424242424243</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A211" s="19"/>
+      <c r="B211">
+        <v>4</v>
+      </c>
+      <c r="C211" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="E211" s="2">
+        <v>6663.6507936514699</v>
+      </c>
+      <c r="F211" s="2">
+        <f t="shared" si="12"/>
+        <v>0.41818181818181815</v>
+      </c>
+      <c r="H211" s="19"/>
+      <c r="I211">
+        <v>4</v>
+      </c>
+      <c r="J211">
+        <v>0.69</v>
+      </c>
+      <c r="K211">
+        <v>0.52</v>
+      </c>
+      <c r="L211" s="2">
+        <v>3793.8730158739099</v>
+      </c>
+      <c r="M211" s="2">
+        <f t="shared" si="13"/>
+        <v>0.75362318840579723</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A212" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="D212" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="E212" s="2">
+        <v>9095.20105820141</v>
+      </c>
+      <c r="F212" s="2">
+        <f t="shared" si="12"/>
+        <v>0.34328358208955223</v>
+      </c>
+      <c r="H212" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>0.8</v>
+      </c>
+      <c r="K212">
+        <v>0.61</v>
+      </c>
+      <c r="L212" s="2">
+        <v>4472.8783068795901</v>
+      </c>
+      <c r="M212" s="2">
+        <f t="shared" si="13"/>
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A213" s="19"/>
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D213" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="E213" s="2">
+        <v>7703.5185185193704</v>
+      </c>
+      <c r="F213" s="2">
+        <f t="shared" si="12"/>
+        <v>0.41538461538461541</v>
+      </c>
+      <c r="H213" s="19"/>
+      <c r="I213">
+        <v>2</v>
+      </c>
+      <c r="J213">
+        <v>0.82</v>
+      </c>
+      <c r="K213">
+        <v>0.65</v>
+      </c>
+      <c r="L213" s="2">
+        <v>4118.3862433873901</v>
+      </c>
+      <c r="M213" s="2">
+        <f t="shared" si="13"/>
+        <v>0.79268292682926833</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A214" s="19"/>
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D214" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="E214" s="2">
+        <v>7733.6719576728101</v>
+      </c>
+      <c r="F214" s="2">
+        <f t="shared" si="12"/>
+        <v>0.41538461538461541</v>
+      </c>
+      <c r="H214" s="19"/>
+      <c r="I214">
+        <v>3</v>
+      </c>
+      <c r="J214">
+        <v>0.8</v>
+      </c>
+      <c r="K214">
+        <v>0.6</v>
+      </c>
+      <c r="L214" s="2">
+        <v>4584.2116402129504</v>
+      </c>
+      <c r="M214" s="2">
+        <f t="shared" si="13"/>
+        <v>0.74999999999999989</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A215" s="19"/>
+      <c r="B215">
+        <v>4</v>
+      </c>
+      <c r="C215" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="D215" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E215" s="2">
+        <v>6928.7566137574704</v>
+      </c>
+      <c r="F215" s="2">
+        <f t="shared" si="12"/>
+        <v>0.46774193548387094</v>
+      </c>
+      <c r="H215" s="19"/>
+      <c r="I215">
+        <v>4</v>
+      </c>
+      <c r="J215">
+        <v>0.78</v>
+      </c>
+      <c r="K215">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L215" s="2">
+        <v>4642.9629629642504</v>
+      </c>
+      <c r="M215" s="2">
+        <f t="shared" si="13"/>
+        <v>0.7435897435897435</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A216" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="D216" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="E216" s="2">
+        <v>7767.2010582021003</v>
+      </c>
+      <c r="F216" s="2">
+        <f t="shared" si="12"/>
+        <v>0.4788732394366198</v>
+      </c>
+      <c r="H216" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0.9</v>
+      </c>
+      <c r="K216">
+        <v>0.67</v>
+      </c>
+      <c r="L216" s="2">
+        <v>5195.5026455042198</v>
+      </c>
+      <c r="M216" s="2">
+        <f t="shared" si="13"/>
+        <v>0.74444444444444446</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A217" s="19"/>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="D217" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="E217" s="2">
+        <v>8655.9312169319201</v>
+      </c>
+      <c r="F217" s="2">
+        <f t="shared" si="12"/>
+        <v>0.42465753424657537</v>
+      </c>
+      <c r="H217" s="19"/>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217">
+        <v>0.9</v>
+      </c>
+      <c r="K217">
+        <v>0.67</v>
+      </c>
+      <c r="L217" s="2">
+        <v>5061.2539682555098</v>
+      </c>
+      <c r="M217" s="2">
+        <f t="shared" si="13"/>
+        <v>0.74444444444444446</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A218" s="19"/>
+      <c r="B218">
+        <v>3</v>
+      </c>
+      <c r="C218" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D218" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E218" s="2">
+        <v>10021.9682539682</v>
+      </c>
+      <c r="F218" s="2">
+        <f t="shared" si="12"/>
+        <v>0.33783783783783783</v>
+      </c>
+      <c r="H218" s="19"/>
+      <c r="I218">
+        <v>3</v>
+      </c>
+      <c r="J218">
+        <v>0.88</v>
+      </c>
+      <c r="K218">
+        <v>0.65</v>
+      </c>
+      <c r="L218" s="2">
+        <v>5275.3227513243701</v>
+      </c>
+      <c r="M218" s="2">
+        <f t="shared" si="13"/>
+        <v>0.73863636363636365</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A219" s="19"/>
+      <c r="B219">
+        <v>4</v>
+      </c>
+      <c r="C219" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="D219" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="E219" s="2">
+        <v>8561.8306878313906</v>
+      </c>
+      <c r="F219" s="2">
+        <f t="shared" si="12"/>
+        <v>0.42465753424657537</v>
+      </c>
+      <c r="H219" s="19"/>
+      <c r="I219">
+        <v>4</v>
+      </c>
+      <c r="J219">
+        <v>0.9</v>
+      </c>
+      <c r="K219">
+        <v>0.7</v>
+      </c>
+      <c r="L219" s="2">
+        <v>4706.1005291019501</v>
+      </c>
+      <c r="M219" s="2">
+        <f t="shared" si="13"/>
+        <v>0.77777777777777768</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A220" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D220" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="E220" s="2">
+        <v>9069.2804232809995</v>
+      </c>
+      <c r="F220" s="2">
+        <f t="shared" si="12"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="H220" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>0.97</v>
+      </c>
+      <c r="K220">
+        <v>0.74</v>
+      </c>
+      <c r="L220" s="2">
+        <v>5362.8677248694603</v>
+      </c>
+      <c r="M220" s="2">
+        <f t="shared" si="13"/>
+        <v>0.7628865979381444</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A221" s="19"/>
+      <c r="B221">
+        <v>2</v>
+      </c>
+      <c r="C221" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="D221" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E221" s="2">
+        <v>11239.338624338199</v>
+      </c>
+      <c r="F221" s="2">
+        <f t="shared" si="12"/>
+        <v>0.32098765432098764</v>
+      </c>
+      <c r="H221" s="19"/>
+      <c r="I221">
+        <v>2</v>
+      </c>
+      <c r="J221">
+        <v>0.97</v>
+      </c>
+      <c r="K221">
+        <v>0.72</v>
+      </c>
+      <c r="L221" s="2">
+        <v>5808.6878306896297</v>
+      </c>
+      <c r="M221" s="2">
+        <f t="shared" si="13"/>
+        <v>0.74226804123711343</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A222" s="19"/>
+      <c r="B222">
+        <v>3</v>
+      </c>
+      <c r="C222" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="D222" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E222" s="2">
+        <v>8074.0052910064696</v>
+      </c>
+      <c r="F222" s="2">
+        <f t="shared" si="12"/>
+        <v>0.50632911392405067</v>
+      </c>
+      <c r="H222" s="19"/>
+      <c r="I222">
+        <v>3</v>
+      </c>
+      <c r="J222">
+        <v>0.98</v>
+      </c>
+      <c r="K222">
+        <v>0.74</v>
+      </c>
+      <c r="L222" s="2">
+        <v>5465.4656084673397</v>
+      </c>
+      <c r="M222" s="2">
+        <f t="shared" si="13"/>
+        <v>0.75510204081632648</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A223" s="19"/>
+      <c r="B223">
+        <v>4</v>
+      </c>
+      <c r="C223" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D223" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="E223" s="2">
+        <v>9476.3121693124795</v>
+      </c>
+      <c r="F223" s="2">
+        <f t="shared" si="12"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="H223" s="19"/>
+      <c r="I223">
+        <v>4</v>
+      </c>
+      <c r="J223">
+        <v>0.97</v>
+      </c>
+      <c r="K223">
+        <v>0.73</v>
+      </c>
+      <c r="L223" s="2">
+        <v>5569.03703703885</v>
+      </c>
+      <c r="M223" s="2">
+        <f t="shared" si="13"/>
+        <v>0.75257731958762886</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="119">
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="H216:H219"/>
+    <mergeCell ref="A220:A223"/>
+    <mergeCell ref="H220:H223"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A204:A207"/>
+    <mergeCell ref="H204:H207"/>
+    <mergeCell ref="A208:A211"/>
+    <mergeCell ref="H208:H211"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="H212:H215"/>
+    <mergeCell ref="A193:M193"/>
+    <mergeCell ref="A194:F194"/>
+    <mergeCell ref="H194:M194"/>
+    <mergeCell ref="A196:A199"/>
+    <mergeCell ref="H196:H199"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="H200:H203"/>
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="H180:H183"/>
+    <mergeCell ref="A184:A187"/>
+    <mergeCell ref="H184:H187"/>
+    <mergeCell ref="A188:A191"/>
+    <mergeCell ref="H188:H191"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="H168:H171"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="H172:H175"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="H176:H179"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="H156:H159"/>
+    <mergeCell ref="A161:M161"/>
+    <mergeCell ref="A162:F162"/>
+    <mergeCell ref="H162:M162"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="H164:H167"/>
+    <mergeCell ref="A144:A147"/>
+    <mergeCell ref="H144:H147"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="H148:H151"/>
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="H152:H155"/>
+    <mergeCell ref="A132:A135"/>
+    <mergeCell ref="H132:H135"/>
+    <mergeCell ref="A136:A139"/>
+    <mergeCell ref="H136:H139"/>
+    <mergeCell ref="A140:A143"/>
+    <mergeCell ref="H140:H143"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="H120:H123"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="H124:H127"/>
+    <mergeCell ref="A129:M129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="H130:M130"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="H108:H111"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="H116:H119"/>
+    <mergeCell ref="A97:M97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="H98:M98"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="H100:H103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="H104:H107"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="H92:H95"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="A65:M65"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A24:A27"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>